--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>656983.0159318792</v>
+        <v>655792.8712593318</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19910377.84254807</v>
+        <v>19910377.84254808</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>418.2942882004972</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>218.2765430094788</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -724,7 +724,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -834,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>101.7706336613754</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>221.9986082496081</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.5734645353205</v>
+        <v>335.4789331224958</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -958,13 +958,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>18.05677735225712</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>238.6402961458876</v>
       </c>
       <c r="E8" t="n">
-        <v>139.4558578025105</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>86.48613679462068</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1344,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1378,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>206.980804364664</v>
+        <v>396.9493336024304</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>281.788830585978</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>72.91374287098475</v>
       </c>
       <c r="T11" t="n">
         <v>215.9644459171853</v>
@@ -1429,7 +1429,7 @@
         <v>256.5953180993102</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>308.3546499934431</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1466,7 +1466,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H12" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>41.78509505031621</v>
+        <v>54.22485458460665</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.43975953429109</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>154.2521970771855</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>282.7377285310465</v>
+        <v>396.9493336024304</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>281.788830585978</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>215.9644459171853</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>245.918782352893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H15" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>163.7404517532998</v>
       </c>
       <c r="H16" t="n">
-        <v>41.78509505031664</v>
+        <v>136.7702212868389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.91186029215581</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.43975953429109</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>154.2521970771855</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>78.48061012553366</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1900,10 +1900,10 @@
         <v>215.9644459171853</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5953180993117</v>
+        <v>256.5953180993102</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655136</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1940,7 +1940,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H18" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>163.7404517532998</v>
       </c>
       <c r="H19" t="n">
-        <v>136.7702212868389</v>
+        <v>54.22485458460629</v>
       </c>
       <c r="I19" t="n">
-        <v>81.91186029215581</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.2521970771855</v>
       </c>
       <c r="T19" t="n">
         <v>242.5878526715886</v>
       </c>
       <c r="U19" t="n">
-        <v>265.4330093419799</v>
+        <v>275.6380392591822</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2098,7 +2098,7 @@
         <v>396.9493336024304</v>
       </c>
       <c r="H20" t="n">
-        <v>281.7888305859796</v>
+        <v>281.788830585978</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463345</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H21" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>160.631064484405</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2250,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>10.48275650347294</v>
       </c>
       <c r="G22" t="n">
         <v>163.7404517532998</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.2521970771855</v>
       </c>
       <c r="T22" t="n">
         <v>242.5878526715886</v>
@@ -2414,7 +2414,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H24" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>163.7404517532998</v>
       </c>
       <c r="H25" t="n">
-        <v>41.78509505031585</v>
+        <v>54.22485458460629</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.43975953429109</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>154.2521970771855</v>
@@ -2651,7 +2651,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H27" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>163.7404517532998</v>
       </c>
       <c r="H28" t="n">
-        <v>41.78509505031631</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>54.22485458460629</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>12.43975953429109</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>154.2521970771855</v>
@@ -2794,7 +2794,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884126</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2888,7 +2888,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H30" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>163.7404517532998</v>
       </c>
       <c r="H31" t="n">
-        <v>136.7702212868389</v>
+        <v>54.22485458460629</v>
       </c>
       <c r="I31" t="n">
-        <v>81.91186029215581</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>12.43975953429109</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>154.2521970771855</v>
       </c>
       <c r="T31" t="n">
-        <v>65.69086614291516</v>
+        <v>242.5878526715886</v>
       </c>
       <c r="U31" t="n">
         <v>275.6380392591822</v>
@@ -3125,7 +3125,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H33" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>163.7404517532998</v>
       </c>
       <c r="H34" t="n">
-        <v>41.78509505031631</v>
+        <v>54.22485458460629</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>12.43975953429109</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>154.2521970771855</v>
@@ -3362,7 +3362,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H36" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>10.48275650347294</v>
       </c>
       <c r="G37" t="n">
         <v>163.7404517532998</v>
       </c>
       <c r="H37" t="n">
-        <v>54.22485458460721</v>
+        <v>136.7702212868389</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.91186029215581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773006</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.91374287098475</v>
+        <v>72.91374287098476</v>
       </c>
       <c r="T38" t="n">
         <v>215.9644459171853</v>
@@ -3599,7 +3599,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H39" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.7404517532998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.7702212868389</v>
       </c>
       <c r="I40" t="n">
-        <v>54.22485458460694</v>
+        <v>81.91186029215581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2521970771855</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>242.5878526715886</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6380392591822</v>
+        <v>265.4330093419794</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3748,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.9493336024304</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>26.58710482263313</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.91374287098475</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>215.9644459171853</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>176.8698376147268</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H42" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>136.7702212868389</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.91186029215581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.43975953429109</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>59.26707084066278</v>
+        <v>154.2521970771855</v>
       </c>
       <c r="T43" t="n">
         <v>242.5878526715886</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>60.68824698464487</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>284.3849338605806</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.9493336024304</v>
       </c>
       <c r="H44" t="n">
-        <v>281.788830585978</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.91374287098475</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.9644459171853</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>68.83386496810117</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>84.29875042888899</v>
       </c>
       <c r="H45" t="n">
-        <v>39.07294709391941</v>
+        <v>39.07294709391942</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>242.5878526715886</v>
       </c>
       <c r="U46" t="n">
-        <v>111.1808122647944</v>
+        <v>111.1808122647939</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.3508218145016</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C2" t="n">
-        <v>139.2487530383289</v>
+        <v>832.4193116355168</v>
       </c>
       <c r="D2" t="n">
-        <v>107.3793722531775</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E2" t="n">
-        <v>77.64503145187676</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4339,13 +4339,13 @@
         <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>1828.15434655531</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W2" t="n">
-        <v>1423.298891966343</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X2" t="n">
-        <v>1004.156428545654</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y2" t="n">
-        <v>595.8703048453069</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.8972536055599</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>731.3355420887848</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>565.4575492903075</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>395.6995455410447</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>218.9924915028009</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862856</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
         <v>53.40121652862856</v>
@@ -4491,10 +4491,10 @@
         <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.33055796836</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425082</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X4" t="n">
-        <v>1319.956890758495</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y4" t="n">
-        <v>1095.715872324547</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.095648603258</v>
+        <v>173.3508218145016</v>
       </c>
       <c r="C5" t="n">
-        <v>1350.953175786681</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0433909611256</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682271</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2047.406523133708</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>2032.304463753423</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>2028.058744093481</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>992.5572028308845</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C7" t="n">
-        <v>819.9954913141095</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D7" t="n">
-        <v>654.1174985156322</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E7" t="n">
-        <v>484.3594947663694</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F7" t="n">
-        <v>307.6524407281256</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>71.64038557131252</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4755,22 +4755,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2494.602160192524</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>2216.169159445629</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V7" t="n">
-        <v>1929.213651316059</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>1657.187246902351</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X7" t="n">
-        <v>1411.795492235764</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1184.375821549872</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>977.6515424412072</v>
+        <v>1476.683845818179</v>
       </c>
       <c r="C8" t="n">
-        <v>943.5494736650346</v>
+        <v>1038.541373001603</v>
       </c>
       <c r="D8" t="n">
-        <v>911.6800928798832</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E8" t="n">
-        <v>770.8155900490646</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>1423.298891966343</v>
+        <v>2326.371599383719</v>
       </c>
       <c r="X8" t="n">
-        <v>1004.156428545654</v>
+        <v>2311.269540003434</v>
       </c>
       <c r="Y8" t="n">
-        <v>999.910708885711</v>
+        <v>1902.983416303087</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4992,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1563.928672528404</v>
+        <v>1178.809083776456</v>
       </c>
       <c r="C11" t="n">
-        <v>1563.928672528404</v>
+        <v>1178.809083776456</v>
       </c>
       <c r="D11" t="n">
-        <v>1128.018887702848</v>
+        <v>742.8992989509009</v>
       </c>
       <c r="E11" t="n">
-        <v>694.2441428611432</v>
+        <v>742.8992989509009</v>
       </c>
       <c r="F11" t="n">
-        <v>266.376713270351</v>
+        <v>742.8992989509009</v>
       </c>
       <c r="G11" t="n">
-        <v>57.30519371008434</v>
+        <v>341.9403761201631</v>
       </c>
       <c r="H11" t="n">
         <v>57.30519371008434</v>
       </c>
       <c r="I11" t="n">
-        <v>73.48099183312321</v>
+        <v>73.4809918331232</v>
       </c>
       <c r="J11" t="n">
-        <v>375.7911455660388</v>
+        <v>545.2461823892653</v>
       </c>
       <c r="K11" t="n">
-        <v>1084.942917728333</v>
+        <v>1254.397954551559</v>
       </c>
       <c r="L11" t="n">
-        <v>1152.827643199542</v>
+        <v>1322.282680022769</v>
       </c>
       <c r="M11" t="n">
-        <v>1228.362480272536</v>
+        <v>1397.817517095762</v>
       </c>
       <c r="N11" t="n">
-        <v>1305.119549978612</v>
+        <v>1474.574586801838</v>
       </c>
       <c r="O11" t="n">
-        <v>2014.271322140906</v>
+        <v>1547.054111151044</v>
       </c>
       <c r="P11" t="n">
-        <v>2076.130919299892</v>
+        <v>2256.205883313338</v>
       </c>
       <c r="Q11" t="n">
-        <v>2669.083686518751</v>
+        <v>2838.237751271808</v>
       </c>
       <c r="R11" t="n">
         <v>2865.259685504217</v>
       </c>
       <c r="S11" t="n">
-        <v>2865.259685504217</v>
+        <v>2791.60944017999</v>
       </c>
       <c r="T11" t="n">
-        <v>2647.113780537363</v>
+        <v>2573.463535213136</v>
       </c>
       <c r="U11" t="n">
-        <v>2387.92659053806</v>
+        <v>2314.276345213833</v>
       </c>
       <c r="V11" t="n">
-        <v>2387.92659053806</v>
+        <v>2002.807001786113</v>
       </c>
       <c r="W11" t="n">
-        <v>1983.071135949093</v>
+        <v>1597.951547197146</v>
       </c>
       <c r="X11" t="n">
-        <v>1563.928672528404</v>
+        <v>1178.809083776456</v>
       </c>
       <c r="Y11" t="n">
-        <v>1563.928672528404</v>
+        <v>1178.809083776456</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>91.29335660553147</v>
       </c>
       <c r="J12" t="n">
-        <v>437.5970870980381</v>
+        <v>113.0387621318257</v>
       </c>
       <c r="K12" t="n">
-        <v>1146.748859260332</v>
+        <v>822.1905342941193</v>
       </c>
       <c r="L12" t="n">
-        <v>1334.982035147712</v>
+        <v>911.4158746099764</v>
       </c>
       <c r="M12" t="n">
-        <v>1393.300222662406</v>
+        <v>969.73406212467</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.16191906943</v>
+        <v>1029.595758531695</v>
       </c>
       <c r="O12" t="n">
-        <v>1507.923676350192</v>
+        <v>1084.357515812456</v>
       </c>
       <c r="P12" t="n">
-        <v>1551.874814449807</v>
+        <v>1128.308653912071</v>
       </c>
       <c r="Q12" t="n">
-        <v>1581.254986328423</v>
+        <v>1698.427764422762</v>
       </c>
       <c r="R12" t="n">
         <v>1712.718092663337</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>949.8115182407382</v>
+        <v>962.3769319117387</v>
       </c>
       <c r="C13" t="n">
-        <v>777.2498067239632</v>
+        <v>789.8152203949636</v>
       </c>
       <c r="D13" t="n">
-        <v>611.3718139254859</v>
+        <v>623.9372275964863</v>
       </c>
       <c r="E13" t="n">
-        <v>441.6138101762231</v>
+        <v>454.1792238472236</v>
       </c>
       <c r="F13" t="n">
-        <v>264.9067561379793</v>
+        <v>277.4721698089797</v>
       </c>
       <c r="G13" t="n">
-        <v>99.51236042757546</v>
+        <v>112.0777740985759</v>
       </c>
       <c r="H13" t="n">
-        <v>99.51236042757546</v>
+        <v>112.0777740985759</v>
       </c>
       <c r="I13" t="n">
         <v>57.30519371008434</v>
@@ -5202,49 +5202,49 @@
         <v>157.5272474806329</v>
       </c>
       <c r="K13" t="n">
-        <v>454.7043044412342</v>
+        <v>454.7043044412341</v>
       </c>
       <c r="L13" t="n">
-        <v>901.6022788130546</v>
+        <v>901.6022788130545</v>
       </c>
       <c r="M13" t="n">
-        <v>1391.333717277345</v>
+        <v>1391.333717277344</v>
       </c>
       <c r="N13" t="n">
-        <v>1863.120872079894</v>
+        <v>1863.120872079893</v>
       </c>
       <c r="O13" t="n">
-        <v>2310.064333351952</v>
+        <v>2310.064333351951</v>
       </c>
       <c r="P13" t="n">
-        <v>2680.909027493612</v>
+        <v>2680.909027493611</v>
       </c>
       <c r="Q13" t="n">
         <v>2865.259685504217</v>
       </c>
       <c r="R13" t="n">
-        <v>2852.694271833216</v>
+        <v>2865.259685504217</v>
       </c>
       <c r="S13" t="n">
-        <v>2696.883971755251</v>
+        <v>2709.449385426251</v>
       </c>
       <c r="T13" t="n">
-        <v>2451.845736733444</v>
+        <v>2464.411150404445</v>
       </c>
       <c r="U13" t="n">
-        <v>2173.423474855483</v>
+        <v>2185.988888526483</v>
       </c>
       <c r="V13" t="n">
-        <v>1886.467966725913</v>
+        <v>1899.033380396914</v>
       </c>
       <c r="W13" t="n">
-        <v>1614.441562312205</v>
+        <v>1627.006975983205</v>
       </c>
       <c r="X13" t="n">
-        <v>1369.049807645617</v>
+        <v>1381.615221316618</v>
       </c>
       <c r="Y13" t="n">
-        <v>1141.630136959725</v>
+        <v>1154.195550630726</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1206.676073309307</v>
+        <v>1616.951556593033</v>
       </c>
       <c r="C14" t="n">
-        <v>1206.676073309307</v>
+        <v>1178.809083776456</v>
       </c>
       <c r="D14" t="n">
-        <v>770.7662884837519</v>
+        <v>742.899298950901</v>
       </c>
       <c r="E14" t="n">
-        <v>770.7662884837519</v>
+        <v>742.899298950901</v>
       </c>
       <c r="F14" t="n">
-        <v>342.8988588929596</v>
+        <v>742.899298950901</v>
       </c>
       <c r="G14" t="n">
-        <v>57.30519371008435</v>
+        <v>341.9403761201631</v>
       </c>
       <c r="H14" t="n">
         <v>57.30519371008435</v>
       </c>
       <c r="I14" t="n">
-        <v>73.48099183312323</v>
+        <v>73.48099183312321</v>
       </c>
       <c r="J14" t="n">
-        <v>545.2461823892654</v>
+        <v>545.2461823892653</v>
       </c>
       <c r="K14" t="n">
-        <v>1002.102313954498</v>
+        <v>1254.397954551559</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.987039425708</v>
+        <v>1322.282680022769</v>
       </c>
       <c r="M14" t="n">
-        <v>1779.138811588002</v>
+        <v>1397.817517095762</v>
       </c>
       <c r="N14" t="n">
-        <v>2488.290583750295</v>
+        <v>1474.574586801838</v>
       </c>
       <c r="O14" t="n">
-        <v>2560.770108099501</v>
+        <v>2014.271322140907</v>
       </c>
       <c r="P14" t="n">
-        <v>2622.629705258488</v>
+        <v>2076.130919299893</v>
       </c>
       <c r="Q14" t="n">
         <v>2669.083686518752</v>
@@ -5308,22 +5308,22 @@
         <v>2865.259685504217</v>
       </c>
       <c r="T14" t="n">
-        <v>2865.259685504217</v>
+        <v>2647.113780537364</v>
       </c>
       <c r="U14" t="n">
-        <v>2865.259685504217</v>
+        <v>2398.710970079896</v>
       </c>
       <c r="V14" t="n">
-        <v>2865.259685504217</v>
+        <v>2036.094020013722</v>
       </c>
       <c r="W14" t="n">
-        <v>2460.404230915251</v>
+        <v>2036.094020013722</v>
       </c>
       <c r="X14" t="n">
-        <v>2041.261767494562</v>
+        <v>1616.951556593033</v>
       </c>
       <c r="Y14" t="n">
-        <v>1632.975643794215</v>
+        <v>1616.951556593033</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>181.9230699957494</v>
       </c>
       <c r="G15" t="n">
-        <v>96.77281703727567</v>
+        <v>96.77281703727569</v>
       </c>
       <c r="H15" t="n">
         <v>57.30519371008435</v>
@@ -5360,19 +5360,19 @@
         <v>437.5970870980381</v>
       </c>
       <c r="K15" t="n">
-        <v>474.7634486997082</v>
+        <v>744.268336728292</v>
       </c>
       <c r="L15" t="n">
-        <v>524.7382084870532</v>
+        <v>794.2430965156368</v>
       </c>
       <c r="M15" t="n">
-        <v>583.0563960017469</v>
+        <v>852.5612840303304</v>
       </c>
       <c r="N15" t="n">
-        <v>642.9180924087717</v>
+        <v>912.4229804373552</v>
       </c>
       <c r="O15" t="n">
-        <v>697.6798496895333</v>
+        <v>967.1847377181167</v>
       </c>
       <c r="P15" t="n">
         <v>1011.135875817731</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>949.8115182407387</v>
+        <v>1128.495343017181</v>
       </c>
       <c r="C16" t="n">
-        <v>777.2498067239636</v>
+        <v>955.933631500406</v>
       </c>
       <c r="D16" t="n">
-        <v>611.3718139254863</v>
+        <v>790.0556387019287</v>
       </c>
       <c r="E16" t="n">
-        <v>441.6138101762236</v>
+        <v>620.297634952666</v>
       </c>
       <c r="F16" t="n">
-        <v>264.9067561379798</v>
+        <v>443.5905809144223</v>
       </c>
       <c r="G16" t="n">
-        <v>99.51236042757591</v>
+        <v>278.1961852040184</v>
       </c>
       <c r="H16" t="n">
-        <v>57.30519371008435</v>
+        <v>140.0444465304438</v>
       </c>
       <c r="I16" t="n">
         <v>57.30519371008435</v>
@@ -5439,10 +5439,10 @@
         <v>157.5272474806329</v>
       </c>
       <c r="K16" t="n">
-        <v>454.7043044412343</v>
+        <v>454.7043044412341</v>
       </c>
       <c r="L16" t="n">
-        <v>901.6022788130547</v>
+        <v>901.6022788130545</v>
       </c>
       <c r="M16" t="n">
         <v>1391.333717277344</v>
@@ -5454,34 +5454,34 @@
         <v>2310.064333351951</v>
       </c>
       <c r="P16" t="n">
-        <v>2680.909027493612</v>
+        <v>2680.909027493611</v>
       </c>
       <c r="Q16" t="n">
         <v>2865.259685504217</v>
       </c>
       <c r="R16" t="n">
-        <v>2852.694271833217</v>
+        <v>2865.259685504217</v>
       </c>
       <c r="S16" t="n">
-        <v>2696.883971755251</v>
+        <v>2709.449385426251</v>
       </c>
       <c r="T16" t="n">
-        <v>2451.845736733445</v>
+        <v>2464.411150404445</v>
       </c>
       <c r="U16" t="n">
-        <v>2173.423474855483</v>
+        <v>2185.988888526483</v>
       </c>
       <c r="V16" t="n">
-        <v>1886.467966725914</v>
+        <v>1899.033380396914</v>
       </c>
       <c r="W16" t="n">
-        <v>1614.441562312205</v>
+        <v>1627.006975983205</v>
       </c>
       <c r="X16" t="n">
-        <v>1369.049807645618</v>
+        <v>1547.73363242206</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.630136959726</v>
+        <v>1320.313961736168</v>
       </c>
     </row>
     <row r="17">
@@ -5515,22 +5515,22 @@
         <v>118.0833989366494</v>
       </c>
       <c r="J17" t="n">
-        <v>589.8485894927916</v>
+        <v>589.8485894927915</v>
       </c>
       <c r="K17" t="n">
         <v>1478.918661231134</v>
       </c>
       <c r="L17" t="n">
-        <v>2621.863352955203</v>
+        <v>1546.803386702344</v>
       </c>
       <c r="M17" t="n">
-        <v>2697.398190028197</v>
+        <v>1622.338223775338</v>
       </c>
       <c r="N17" t="n">
-        <v>2774.155259734273</v>
+        <v>2363.422611564308</v>
       </c>
       <c r="O17" t="n">
-        <v>3826.814450653785</v>
+        <v>3416.08180248382</v>
       </c>
       <c r="P17" t="n">
         <v>4306.251274476203</v>
@@ -5548,7 +5548,7 @@
         <v>4803.583890389445</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.39670039014</v>
+        <v>4544.396700390142</v>
       </c>
       <c r="V17" t="n">
         <v>4181.779750323966</v>
@@ -5591,31 +5591,31 @@
         <v>101.9076008136105</v>
       </c>
       <c r="I18" t="n">
-        <v>109.8320905486</v>
+        <v>135.8957637090576</v>
       </c>
       <c r="J18" t="n">
-        <v>456.1358210411066</v>
+        <v>482.1994942015642</v>
       </c>
       <c r="K18" t="n">
-        <v>1174.035702713154</v>
+        <v>788.8707438318185</v>
       </c>
       <c r="L18" t="n">
-        <v>1224.010462500499</v>
+        <v>838.8455036191632</v>
       </c>
       <c r="M18" t="n">
-        <v>1282.328650015193</v>
+        <v>897.1636911338569</v>
       </c>
       <c r="N18" t="n">
-        <v>1342.190346422217</v>
+        <v>957.0253875408816</v>
       </c>
       <c r="O18" t="n">
-        <v>1396.952103702979</v>
+        <v>1011.787144821643</v>
       </c>
       <c r="P18" t="n">
-        <v>1440.903241802594</v>
+        <v>1055.738282921258</v>
       </c>
       <c r="Q18" t="n">
-        <v>1743.030171526289</v>
+        <v>1625.857393431949</v>
       </c>
       <c r="R18" t="n">
         <v>1757.320499766864</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1173.097750120707</v>
+        <v>1006.979339015264</v>
       </c>
       <c r="C19" t="n">
-        <v>1000.536038603932</v>
+        <v>834.4176274984894</v>
       </c>
       <c r="D19" t="n">
-        <v>834.658045805455</v>
+        <v>668.5396347000121</v>
       </c>
       <c r="E19" t="n">
-        <v>664.9000420561922</v>
+        <v>498.7816309507494</v>
       </c>
       <c r="F19" t="n">
-        <v>488.1929880179484</v>
+        <v>322.0745769125056</v>
       </c>
       <c r="G19" t="n">
-        <v>322.7985923075446</v>
+        <v>156.6801812021017</v>
       </c>
       <c r="H19" t="n">
-        <v>184.6468536339699</v>
+        <v>101.9076008136105</v>
       </c>
       <c r="I19" t="n">
         <v>101.9076008136105</v>
@@ -5682,7 +5682,7 @@
         <v>946.2046859165806</v>
       </c>
       <c r="M19" t="n">
-        <v>1435.936124380871</v>
+        <v>1435.93612438087</v>
       </c>
       <c r="N19" t="n">
         <v>1907.723279183419</v>
@@ -5694,31 +5694,31 @@
         <v>2725.511434597137</v>
       </c>
       <c r="Q19" t="n">
-        <v>2909.862092607743</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="R19" t="n">
-        <v>2909.862092607743</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="S19" t="n">
-        <v>2909.862092607743</v>
+        <v>2754.051792529777</v>
       </c>
       <c r="T19" t="n">
-        <v>2664.823857585936</v>
+        <v>2509.013557507971</v>
       </c>
       <c r="U19" t="n">
-        <v>2396.709706735452</v>
+        <v>2230.591295630009</v>
       </c>
       <c r="V19" t="n">
-        <v>2109.754198605882</v>
+        <v>1943.635787500439</v>
       </c>
       <c r="W19" t="n">
-        <v>1837.727794192174</v>
+        <v>1671.609383086731</v>
       </c>
       <c r="X19" t="n">
-        <v>1592.336039525586</v>
+        <v>1426.217628420143</v>
       </c>
       <c r="Y19" t="n">
-        <v>1364.916368839695</v>
+        <v>1198.797957734252</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.196138129058</v>
+        <v>2523.196138129056</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.053665312481</v>
+        <v>2085.05366531248</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.143880486926</v>
+        <v>1649.143880486924</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.369135645221</v>
+        <v>1215.369135645219</v>
       </c>
       <c r="F20" t="n">
-        <v>787.5017060544287</v>
+        <v>787.5017060544271</v>
       </c>
       <c r="G20" t="n">
-        <v>386.5427832236909</v>
+        <v>386.5427832236893</v>
       </c>
       <c r="H20" t="n">
         <v>101.9076008136105</v>
@@ -5752,28 +5752,28 @@
         <v>118.0833989366494</v>
       </c>
       <c r="J20" t="n">
-        <v>154.5939020398737</v>
+        <v>589.8485894927915</v>
       </c>
       <c r="K20" t="n">
-        <v>329.3699199592168</v>
+        <v>1478.918661231134</v>
       </c>
       <c r="L20" t="n">
-        <v>1472.314611683286</v>
+        <v>2211.130704785238</v>
       </c>
       <c r="M20" t="n">
-        <v>2704.89728396683</v>
+        <v>2286.665541858232</v>
       </c>
       <c r="N20" t="n">
-        <v>3907.385337109354</v>
+        <v>2363.422611564308</v>
       </c>
       <c r="O20" t="n">
-        <v>4960.044528028866</v>
+        <v>3416.08180248382</v>
       </c>
       <c r="P20" t="n">
-        <v>5021.904125187853</v>
+        <v>4306.251274476203</v>
       </c>
       <c r="Q20" t="n">
-        <v>5068.358106448116</v>
+        <v>4899.20404169506</v>
       </c>
       <c r="R20" t="n">
         <v>5095.380040680526</v>
@@ -5797,7 +5797,7 @@
         <v>3357.781832314312</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.495708613966</v>
+        <v>2949.495708613964</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>101.9076008136105</v>
       </c>
       <c r="I21" t="n">
-        <v>135.8957637090577</v>
+        <v>135.8957637090576</v>
       </c>
       <c r="J21" t="n">
-        <v>482.1994942015643</v>
+        <v>482.1994942015642</v>
       </c>
       <c r="K21" t="n">
-        <v>519.3658558032344</v>
+        <v>788.8707438318185</v>
       </c>
       <c r="L21" t="n">
-        <v>569.3406155905792</v>
+        <v>838.8455036191632</v>
       </c>
       <c r="M21" t="n">
-        <v>627.658803105273</v>
+        <v>897.1636911338569</v>
       </c>
       <c r="N21" t="n">
-        <v>687.5204995122978</v>
+        <v>957.0253875408816</v>
       </c>
       <c r="O21" t="n">
-        <v>742.2822567930593</v>
+        <v>1011.787144821643</v>
       </c>
       <c r="P21" t="n">
-        <v>1055.738282921257</v>
+        <v>1055.738282921258</v>
       </c>
       <c r="Q21" t="n">
         <v>1625.857393431949</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1162.78963909323</v>
+        <v>1006.979339015264</v>
       </c>
       <c r="C22" t="n">
-        <v>1000.536038603932</v>
+        <v>834.4176274984894</v>
       </c>
       <c r="D22" t="n">
-        <v>834.658045805455</v>
+        <v>668.5396347000121</v>
       </c>
       <c r="E22" t="n">
-        <v>664.9000420561922</v>
+        <v>498.7816309507494</v>
       </c>
       <c r="F22" t="n">
         <v>488.1929880179484</v>
@@ -5919,7 +5919,7 @@
         <v>946.2046859165806</v>
       </c>
       <c r="M22" t="n">
-        <v>1435.936124380871</v>
+        <v>1435.93612438087</v>
       </c>
       <c r="N22" t="n">
         <v>1907.723279183419</v>
@@ -5931,31 +5931,31 @@
         <v>2725.511434597137</v>
       </c>
       <c r="Q22" t="n">
-        <v>2909.862092607743</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="R22" t="n">
-        <v>2909.862092607743</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="S22" t="n">
-        <v>2909.862092607743</v>
+        <v>2754.051792529777</v>
       </c>
       <c r="T22" t="n">
-        <v>2664.823857585936</v>
+        <v>2509.013557507971</v>
       </c>
       <c r="U22" t="n">
-        <v>2386.401595707975</v>
+        <v>2230.591295630009</v>
       </c>
       <c r="V22" t="n">
-        <v>2099.446087578405</v>
+        <v>1943.635787500439</v>
       </c>
       <c r="W22" t="n">
-        <v>1827.419683164697</v>
+        <v>1671.609383086731</v>
       </c>
       <c r="X22" t="n">
-        <v>1582.027928498109</v>
+        <v>1426.217628420143</v>
       </c>
       <c r="Y22" t="n">
-        <v>1354.608257812218</v>
+        <v>1198.797957734252</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>787.5017060544278</v>
       </c>
       <c r="G23" t="n">
-        <v>386.5427832236901</v>
+        <v>386.5427832236902</v>
       </c>
       <c r="H23" t="n">
         <v>101.9076008136105</v>
@@ -5989,28 +5989,28 @@
         <v>118.0833989366494</v>
       </c>
       <c r="J23" t="n">
-        <v>589.8485894927916</v>
+        <v>589.8485894927915</v>
       </c>
       <c r="K23" t="n">
         <v>1478.918661231134</v>
       </c>
       <c r="L23" t="n">
-        <v>2380.284769538292</v>
+        <v>2621.863352955203</v>
       </c>
       <c r="M23" t="n">
-        <v>2455.819606611287</v>
+        <v>2697.398190028197</v>
       </c>
       <c r="N23" t="n">
-        <v>2532.576676317363</v>
+        <v>2774.155259734273</v>
       </c>
       <c r="O23" t="n">
-        <v>3585.235867236875</v>
+        <v>3826.814450653785</v>
       </c>
       <c r="P23" t="n">
-        <v>4475.405339229258</v>
+        <v>4716.983922646167</v>
       </c>
       <c r="Q23" t="n">
-        <v>5068.358106448116</v>
+        <v>4899.20404169506</v>
       </c>
       <c r="R23" t="n">
         <v>5095.380040680526</v>
@@ -6019,7 +6019,7 @@
         <v>5021.729795356298</v>
       </c>
       <c r="T23" t="n">
-        <v>4803.583890389445</v>
+        <v>4803.583890389444</v>
       </c>
       <c r="U23" t="n">
         <v>4544.396700390141</v>
@@ -6065,28 +6065,28 @@
         <v>101.9076008136105</v>
       </c>
       <c r="I24" t="n">
-        <v>135.8957637090577</v>
+        <v>135.8957637090576</v>
       </c>
       <c r="J24" t="n">
-        <v>482.1994942015643</v>
+        <v>482.1994942015642</v>
       </c>
       <c r="K24" t="n">
-        <v>519.3658558032344</v>
+        <v>788.8707438318185</v>
       </c>
       <c r="L24" t="n">
-        <v>569.3406155905792</v>
+        <v>838.8455036191632</v>
       </c>
       <c r="M24" t="n">
-        <v>627.658803105273</v>
+        <v>897.1636911338569</v>
       </c>
       <c r="N24" t="n">
-        <v>687.5204995122978</v>
+        <v>957.0253875408816</v>
       </c>
       <c r="O24" t="n">
-        <v>742.2822567930593</v>
+        <v>1011.787144821643</v>
       </c>
       <c r="P24" t="n">
-        <v>1055.738282921257</v>
+        <v>1055.738282921258</v>
       </c>
       <c r="Q24" t="n">
         <v>1625.857393431949</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>994.413925344264</v>
+        <v>1006.979339015264</v>
       </c>
       <c r="C25" t="n">
-        <v>821.852213827489</v>
+        <v>834.4176274984894</v>
       </c>
       <c r="D25" t="n">
-        <v>655.9742210290117</v>
+        <v>668.5396347000121</v>
       </c>
       <c r="E25" t="n">
-        <v>486.2162172797489</v>
+        <v>498.7816309507494</v>
       </c>
       <c r="F25" t="n">
-        <v>309.5091632415051</v>
+        <v>322.0745769125056</v>
       </c>
       <c r="G25" t="n">
-        <v>144.1147675311013</v>
+        <v>156.6801812021017</v>
       </c>
       <c r="H25" t="n">
         <v>101.9076008136105</v>
@@ -6156,7 +6156,7 @@
         <v>946.2046859165806</v>
       </c>
       <c r="M25" t="n">
-        <v>1435.936124380871</v>
+        <v>1435.93612438087</v>
       </c>
       <c r="N25" t="n">
         <v>1907.723279183419</v>
@@ -6168,31 +6168,31 @@
         <v>2725.511434597137</v>
       </c>
       <c r="Q25" t="n">
-        <v>2909.862092607743</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="R25" t="n">
-        <v>2897.296678936742</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="S25" t="n">
-        <v>2741.486378858777</v>
+        <v>2754.051792529777</v>
       </c>
       <c r="T25" t="n">
-        <v>2496.44814383697</v>
+        <v>2509.013557507971</v>
       </c>
       <c r="U25" t="n">
-        <v>2218.025881959009</v>
+        <v>2230.591295630009</v>
       </c>
       <c r="V25" t="n">
-        <v>1931.070373829439</v>
+        <v>1943.635787500439</v>
       </c>
       <c r="W25" t="n">
-        <v>1659.043969415731</v>
+        <v>1671.609383086731</v>
       </c>
       <c r="X25" t="n">
-        <v>1413.652214749143</v>
+        <v>1426.217628420143</v>
       </c>
       <c r="Y25" t="n">
-        <v>1186.232544063251</v>
+        <v>1198.797957734252</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>787.5017060544278</v>
       </c>
       <c r="G26" t="n">
-        <v>386.5427832236893</v>
+        <v>386.5427832236902</v>
       </c>
       <c r="H26" t="n">
         <v>101.9076008136105</v>
@@ -6226,19 +6226,19 @@
         <v>118.0833989366494</v>
       </c>
       <c r="J26" t="n">
-        <v>589.8485894927916</v>
+        <v>589.8485894927915</v>
       </c>
       <c r="K26" t="n">
         <v>1478.918661231134</v>
       </c>
       <c r="L26" t="n">
-        <v>2621.863352955203</v>
+        <v>2211.130704785238</v>
       </c>
       <c r="M26" t="n">
-        <v>3266.845208428538</v>
+        <v>2286.665541858232</v>
       </c>
       <c r="N26" t="n">
-        <v>3343.602278134614</v>
+        <v>2363.422611564308</v>
       </c>
       <c r="O26" t="n">
         <v>3416.08180248382</v>
@@ -6256,7 +6256,7 @@
         <v>5021.729795356298</v>
       </c>
       <c r="T26" t="n">
-        <v>4803.583890389445</v>
+        <v>4803.583890389444</v>
       </c>
       <c r="U26" t="n">
         <v>4544.396700390141</v>
@@ -6302,31 +6302,31 @@
         <v>101.9076008136105</v>
       </c>
       <c r="I27" t="n">
-        <v>135.8957637090577</v>
+        <v>109.8320905486</v>
       </c>
       <c r="J27" t="n">
-        <v>482.1994942015643</v>
+        <v>188.1436402541106</v>
       </c>
       <c r="K27" t="n">
-        <v>519.3658558032344</v>
+        <v>906.0435219261578</v>
       </c>
       <c r="L27" t="n">
-        <v>569.3406155905792</v>
+        <v>956.0182817135027</v>
       </c>
       <c r="M27" t="n">
-        <v>627.658803105273</v>
+        <v>1014.336469228196</v>
       </c>
       <c r="N27" t="n">
-        <v>687.5204995122978</v>
+        <v>1074.198165635221</v>
       </c>
       <c r="O27" t="n">
-        <v>742.2822567930593</v>
+        <v>1128.959922915983</v>
       </c>
       <c r="P27" t="n">
-        <v>1055.738282921257</v>
+        <v>1172.911061015597</v>
       </c>
       <c r="Q27" t="n">
-        <v>1625.857393431949</v>
+        <v>1743.030171526289</v>
       </c>
       <c r="R27" t="n">
         <v>1757.320499766864</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.4139253442645</v>
+        <v>1006.979339015264</v>
       </c>
       <c r="C28" t="n">
-        <v>821.8522138274894</v>
+        <v>834.4176274984894</v>
       </c>
       <c r="D28" t="n">
-        <v>655.9742210290121</v>
+        <v>668.5396347000121</v>
       </c>
       <c r="E28" t="n">
-        <v>486.2162172797494</v>
+        <v>498.7816309507494</v>
       </c>
       <c r="F28" t="n">
-        <v>309.5091632415056</v>
+        <v>322.0745769125056</v>
       </c>
       <c r="G28" t="n">
-        <v>144.1147675311017</v>
+        <v>156.6801812021017</v>
       </c>
       <c r="H28" t="n">
-        <v>101.9076008136105</v>
+        <v>156.6801812021017</v>
       </c>
       <c r="I28" t="n">
         <v>101.9076008136105</v>
@@ -6390,10 +6390,10 @@
         <v>499.3067115447603</v>
       </c>
       <c r="L28" t="n">
-        <v>946.2046859165807</v>
+        <v>946.2046859165806</v>
       </c>
       <c r="M28" t="n">
-        <v>1435.936124380871</v>
+        <v>1435.93612438087</v>
       </c>
       <c r="N28" t="n">
         <v>1907.723279183419</v>
@@ -6402,34 +6402,34 @@
         <v>2354.666740455477</v>
       </c>
       <c r="P28" t="n">
-        <v>2725.511434597138</v>
+        <v>2725.511434597137</v>
       </c>
       <c r="Q28" t="n">
-        <v>2909.862092607743</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="R28" t="n">
-        <v>2897.296678936742</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="S28" t="n">
-        <v>2741.486378858777</v>
+        <v>2754.051792529777</v>
       </c>
       <c r="T28" t="n">
-        <v>2496.448143836971</v>
+        <v>2509.013557507971</v>
       </c>
       <c r="U28" t="n">
-        <v>2218.025881959009</v>
+        <v>2230.591295630009</v>
       </c>
       <c r="V28" t="n">
-        <v>1931.070373829439</v>
+        <v>1943.635787500439</v>
       </c>
       <c r="W28" t="n">
-        <v>1659.043969415731</v>
+        <v>1671.609383086731</v>
       </c>
       <c r="X28" t="n">
-        <v>1413.652214749143</v>
+        <v>1426.217628420143</v>
       </c>
       <c r="Y28" t="n">
-        <v>1186.232544063252</v>
+        <v>1198.797957734252</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2523.196138129058</v>
       </c>
       <c r="C29" t="n">
-        <v>2085.05366531248</v>
+        <v>2085.053665312481</v>
       </c>
       <c r="D29" t="n">
-        <v>1649.143880486924</v>
+        <v>1649.143880486926</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.369135645219</v>
+        <v>1215.369135645221</v>
       </c>
       <c r="F29" t="n">
-        <v>787.5017060544271</v>
+        <v>787.5017060544283</v>
       </c>
       <c r="G29" t="n">
-        <v>386.5427832236893</v>
+        <v>386.5427832236901</v>
       </c>
       <c r="H29" t="n">
         <v>101.9076008136105</v>
@@ -6466,25 +6466,25 @@
         <v>154.5939020398737</v>
       </c>
       <c r="K29" t="n">
-        <v>329.3699199592168</v>
+        <v>1043.663973778216</v>
       </c>
       <c r="L29" t="n">
-        <v>1472.314611683286</v>
+        <v>2186.608665502285</v>
       </c>
       <c r="M29" t="n">
-        <v>2704.89728396683</v>
+        <v>2262.143502575279</v>
       </c>
       <c r="N29" t="n">
-        <v>3907.385337109354</v>
+        <v>2363.422611564308</v>
       </c>
       <c r="O29" t="n">
-        <v>4960.044528028866</v>
+        <v>3416.08180248382</v>
       </c>
       <c r="P29" t="n">
-        <v>5021.904125187853</v>
+        <v>4306.251274476203</v>
       </c>
       <c r="Q29" t="n">
-        <v>5068.358106448116</v>
+        <v>4899.20404169506</v>
       </c>
       <c r="R29" t="n">
         <v>5095.380040680526</v>
@@ -6545,16 +6545,16 @@
         <v>482.1994942015642</v>
       </c>
       <c r="K30" t="n">
-        <v>788.870743831818</v>
+        <v>788.8707438318185</v>
       </c>
       <c r="L30" t="n">
-        <v>838.8455036191629</v>
+        <v>838.8455036191632</v>
       </c>
       <c r="M30" t="n">
-        <v>897.1636911338567</v>
+        <v>897.1636911338569</v>
       </c>
       <c r="N30" t="n">
-        <v>957.0253875408814</v>
+        <v>957.0253875408816</v>
       </c>
       <c r="O30" t="n">
         <v>1011.787144821643</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3358.615698193485</v>
+        <v>1006.979339015264</v>
       </c>
       <c r="C31" t="n">
-        <v>3186.053986676709</v>
+        <v>834.4176274984894</v>
       </c>
       <c r="D31" t="n">
-        <v>3020.175993878232</v>
+        <v>668.5396347000121</v>
       </c>
       <c r="E31" t="n">
-        <v>2850.417990128969</v>
+        <v>498.7816309507494</v>
       </c>
       <c r="F31" t="n">
-        <v>2673.710936090726</v>
+        <v>322.0745769125056</v>
       </c>
       <c r="G31" t="n">
-        <v>2508.316540380322</v>
+        <v>156.6801812021017</v>
       </c>
       <c r="H31" t="n">
-        <v>2370.164801706747</v>
+        <v>101.9076008136105</v>
       </c>
       <c r="I31" t="n">
-        <v>2287.425548886388</v>
+        <v>101.9076008136105</v>
       </c>
       <c r="J31" t="n">
-        <v>2387.647602656937</v>
+        <v>202.1296545841591</v>
       </c>
       <c r="K31" t="n">
-        <v>2684.824659617538</v>
+        <v>499.3067115447603</v>
       </c>
       <c r="L31" t="n">
-        <v>3131.722633989358</v>
+        <v>946.2046859165806</v>
       </c>
       <c r="M31" t="n">
-        <v>3621.454072453648</v>
+        <v>1435.93612438087</v>
       </c>
       <c r="N31" t="n">
-        <v>4093.241227256197</v>
+        <v>1907.723279183419</v>
       </c>
       <c r="O31" t="n">
-        <v>4540.184688528255</v>
+        <v>2354.666740455477</v>
       </c>
       <c r="P31" t="n">
-        <v>4911.029382669921</v>
+        <v>2725.511434597137</v>
       </c>
       <c r="Q31" t="n">
-        <v>5095.380040680526</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="R31" t="n">
-        <v>5082.814627009525</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="S31" t="n">
-        <v>4927.00432693156</v>
+        <v>2754.051792529777</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.649916686191</v>
+        <v>2509.013557507971</v>
       </c>
       <c r="U31" t="n">
-        <v>4582.227654808229</v>
+        <v>2230.591295630009</v>
       </c>
       <c r="V31" t="n">
-        <v>4295.27214667866</v>
+        <v>1943.635787500439</v>
       </c>
       <c r="W31" t="n">
-        <v>4023.245742264951</v>
+        <v>1671.609383086731</v>
       </c>
       <c r="X31" t="n">
-        <v>3777.853987598363</v>
+        <v>1426.217628420143</v>
       </c>
       <c r="Y31" t="n">
-        <v>3550.434316912472</v>
+        <v>1198.797957734252</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2523.196138129057</v>
+        <v>2523.196138129058</v>
       </c>
       <c r="C32" t="n">
-        <v>2085.05366531248</v>
+        <v>2085.053665312481</v>
       </c>
       <c r="D32" t="n">
-        <v>1649.143880486925</v>
+        <v>1649.143880486926</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.36913564522</v>
+        <v>1215.369135645221</v>
       </c>
       <c r="F32" t="n">
-        <v>787.5017060544278</v>
+        <v>787.5017060544283</v>
       </c>
       <c r="G32" t="n">
-        <v>386.5427832236893</v>
+        <v>386.5427832236901</v>
       </c>
       <c r="H32" t="n">
         <v>101.9076008136105</v>
@@ -6700,25 +6700,25 @@
         <v>118.0833989366494</v>
       </c>
       <c r="J32" t="n">
-        <v>154.5939020398737</v>
+        <v>348.2700060758818</v>
       </c>
       <c r="K32" t="n">
-        <v>329.3699199592173</v>
+        <v>1237.340077814225</v>
       </c>
       <c r="L32" t="n">
-        <v>1472.314611683286</v>
+        <v>2380.284769538293</v>
       </c>
       <c r="M32" t="n">
-        <v>2704.897283966831</v>
+        <v>2455.819606611287</v>
       </c>
       <c r="N32" t="n">
-        <v>3907.385337109354</v>
+        <v>2532.576676317363</v>
       </c>
       <c r="O32" t="n">
-        <v>4960.044528028866</v>
+        <v>3585.235867236875</v>
       </c>
       <c r="P32" t="n">
-        <v>5021.904125187853</v>
+        <v>4475.405339229258</v>
       </c>
       <c r="Q32" t="n">
         <v>5068.358106448116</v>
@@ -6733,19 +6733,19 @@
         <v>4803.583890389445</v>
       </c>
       <c r="U32" t="n">
-        <v>4544.396700390141</v>
+        <v>4544.396700390142</v>
       </c>
       <c r="V32" t="n">
-        <v>4181.779750323967</v>
+        <v>4181.779750323968</v>
       </c>
       <c r="W32" t="n">
-        <v>3776.924295735001</v>
+        <v>3776.924295735002</v>
       </c>
       <c r="X32" t="n">
-        <v>3357.781832314311</v>
+        <v>3357.781832314312</v>
       </c>
       <c r="Y32" t="n">
-        <v>2949.495708613965</v>
+        <v>2949.495708613966</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3943.636021086628</v>
+        <v>605.5764801729647</v>
       </c>
       <c r="C33" t="n">
-        <v>3837.17955992327</v>
+        <v>499.120019009607</v>
       </c>
       <c r="D33" t="n">
-        <v>3742.089271069823</v>
+        <v>404.0297301561603</v>
       </c>
       <c r="E33" t="n">
-        <v>3647.968856396777</v>
+        <v>309.909315483114</v>
       </c>
       <c r="F33" t="n">
-        <v>3564.585018012939</v>
+        <v>226.5254770992756</v>
       </c>
       <c r="G33" t="n">
-        <v>3479.434765054465</v>
+        <v>141.3752241408018</v>
       </c>
       <c r="H33" t="n">
-        <v>3439.967141727274</v>
+        <v>101.9076008136105</v>
       </c>
       <c r="I33" t="n">
-        <v>3473.955304622721</v>
+        <v>135.8957637090576</v>
       </c>
       <c r="J33" t="n">
-        <v>3820.259035115228</v>
+        <v>482.1994942015642</v>
       </c>
       <c r="K33" t="n">
-        <v>4126.930284745479</v>
+        <v>788.8707438318185</v>
       </c>
       <c r="L33" t="n">
-        <v>4176.905044532824</v>
+        <v>838.8455036191632</v>
       </c>
       <c r="M33" t="n">
-        <v>4235.223232047518</v>
+        <v>897.1636911338569</v>
       </c>
       <c r="N33" t="n">
-        <v>4295.084928454543</v>
+        <v>957.0253875408816</v>
       </c>
       <c r="O33" t="n">
-        <v>4349.846685735304</v>
+        <v>1011.787144821643</v>
       </c>
       <c r="P33" t="n">
-        <v>4393.797823834919</v>
+        <v>1055.738282921258</v>
       </c>
       <c r="Q33" t="n">
-        <v>4963.916934345611</v>
+        <v>1625.857393431949</v>
       </c>
       <c r="R33" t="n">
-        <v>5095.380040680526</v>
+        <v>1757.320499766864</v>
       </c>
       <c r="S33" t="n">
-        <v>5036.286593232308</v>
+        <v>1698.227052318646</v>
       </c>
       <c r="T33" t="n">
-        <v>4907.054506565277</v>
+        <v>1568.994965651614</v>
       </c>
       <c r="U33" t="n">
-        <v>4730.733409353096</v>
+        <v>1392.673868439434</v>
       </c>
       <c r="V33" t="n">
-        <v>4531.615891415096</v>
+        <v>1193.556350501433</v>
       </c>
       <c r="W33" t="n">
-        <v>4346.29313714829</v>
+        <v>1008.233596234627</v>
       </c>
       <c r="X33" t="n">
-        <v>4191.42570138717</v>
+        <v>853.3661604735071</v>
       </c>
       <c r="Y33" t="n">
-        <v>4064.939922166391</v>
+        <v>726.8803812527278</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>994.4139253442645</v>
+        <v>1006.979339015264</v>
       </c>
       <c r="C34" t="n">
-        <v>821.8522138274894</v>
+        <v>834.4176274984894</v>
       </c>
       <c r="D34" t="n">
-        <v>655.9742210290121</v>
+        <v>668.5396347000121</v>
       </c>
       <c r="E34" t="n">
-        <v>486.2162172797494</v>
+        <v>498.7816309507494</v>
       </c>
       <c r="F34" t="n">
-        <v>309.5091632415056</v>
+        <v>322.0745769125056</v>
       </c>
       <c r="G34" t="n">
-        <v>144.1147675311017</v>
+        <v>156.6801812021017</v>
       </c>
       <c r="H34" t="n">
         <v>101.9076008136105</v>
@@ -6864,10 +6864,10 @@
         <v>499.3067115447603</v>
       </c>
       <c r="L34" t="n">
-        <v>946.2046859165807</v>
+        <v>946.2046859165806</v>
       </c>
       <c r="M34" t="n">
-        <v>1435.936124380871</v>
+        <v>1435.93612438087</v>
       </c>
       <c r="N34" t="n">
         <v>1907.723279183419</v>
@@ -6876,34 +6876,34 @@
         <v>2354.666740455477</v>
       </c>
       <c r="P34" t="n">
-        <v>2725.511434597138</v>
+        <v>2725.511434597137</v>
       </c>
       <c r="Q34" t="n">
-        <v>2909.862092607743</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="R34" t="n">
-        <v>2897.296678936742</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="S34" t="n">
-        <v>2741.486378858777</v>
+        <v>2754.051792529777</v>
       </c>
       <c r="T34" t="n">
-        <v>2496.448143836971</v>
+        <v>2509.013557507971</v>
       </c>
       <c r="U34" t="n">
-        <v>2218.025881959009</v>
+        <v>2230.591295630009</v>
       </c>
       <c r="V34" t="n">
-        <v>1931.070373829439</v>
+        <v>1943.635787500439</v>
       </c>
       <c r="W34" t="n">
-        <v>1659.043969415731</v>
+        <v>1671.609383086731</v>
       </c>
       <c r="X34" t="n">
-        <v>1413.652214749143</v>
+        <v>1426.217628420143</v>
       </c>
       <c r="Y34" t="n">
-        <v>1186.232544063252</v>
+        <v>1198.797957734252</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>118.0833989366494</v>
       </c>
       <c r="J35" t="n">
-        <v>154.5939020398737</v>
+        <v>154.5939020398736</v>
       </c>
       <c r="K35" t="n">
-        <v>209.3136818200385</v>
+        <v>329.3699199592173</v>
       </c>
       <c r="L35" t="n">
-        <v>1303.160546930228</v>
+        <v>1472.314611683286</v>
       </c>
       <c r="M35" t="n">
-        <v>2535.743219213773</v>
+        <v>2704.897283966831</v>
       </c>
       <c r="N35" t="n">
-        <v>3738.231272356296</v>
+        <v>3907.385337109354</v>
       </c>
       <c r="O35" t="n">
-        <v>4790.890463275809</v>
+        <v>4960.044528028866</v>
       </c>
       <c r="P35" t="n">
-        <v>4852.750060434795</v>
+        <v>5021.904125187853</v>
       </c>
       <c r="Q35" t="n">
-        <v>4899.204041695059</v>
+        <v>5068.358106448116</v>
       </c>
       <c r="R35" t="n">
         <v>5095.380040680525</v>
@@ -6976,13 +6976,13 @@
         <v>4181.779750323967</v>
       </c>
       <c r="W35" t="n">
-        <v>3776.924295735</v>
+        <v>3776.924295735001</v>
       </c>
       <c r="X35" t="n">
         <v>3357.781832314311</v>
       </c>
       <c r="Y35" t="n">
-        <v>2949.495708613964</v>
+        <v>2949.495708613965</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3943.636021086626</v>
+        <v>605.5764801729647</v>
       </c>
       <c r="C36" t="n">
-        <v>3837.179559923268</v>
+        <v>499.120019009607</v>
       </c>
       <c r="D36" t="n">
-        <v>3742.089271069821</v>
+        <v>404.0297301561603</v>
       </c>
       <c r="E36" t="n">
-        <v>3647.968856396775</v>
+        <v>309.909315483114</v>
       </c>
       <c r="F36" t="n">
-        <v>3564.585018012937</v>
+        <v>226.5254770992756</v>
       </c>
       <c r="G36" t="n">
-        <v>3479.434765054463</v>
+        <v>141.3752241408018</v>
       </c>
       <c r="H36" t="n">
-        <v>3439.967141727272</v>
+        <v>101.9076008136105</v>
       </c>
       <c r="I36" t="n">
-        <v>3447.891631462262</v>
+        <v>109.8320905486</v>
       </c>
       <c r="J36" t="n">
-        <v>3469.637036988556</v>
+        <v>131.5774960748942</v>
       </c>
       <c r="K36" t="n">
-        <v>3506.803398590226</v>
+        <v>168.7438576765643</v>
       </c>
       <c r="L36" t="n">
-        <v>4015.09359478004</v>
+        <v>218.7186174639091</v>
       </c>
       <c r="M36" t="n">
-        <v>4073.411782294734</v>
+        <v>277.0368049786028</v>
       </c>
       <c r="N36" t="n">
-        <v>4133.273478701759</v>
+        <v>336.8985013856275</v>
       </c>
       <c r="O36" t="n">
-        <v>4188.03523598252</v>
+        <v>391.660258666389</v>
       </c>
       <c r="P36" t="n">
-        <v>5051.709540561334</v>
+        <v>1172.911061015597</v>
       </c>
       <c r="Q36" t="n">
-        <v>5081.08971243995</v>
+        <v>1743.030171526289</v>
       </c>
       <c r="R36" t="n">
-        <v>5095.380040680525</v>
+        <v>1757.320499766864</v>
       </c>
       <c r="S36" t="n">
-        <v>5036.286593232307</v>
+        <v>1698.227052318646</v>
       </c>
       <c r="T36" t="n">
-        <v>4907.054506565276</v>
+        <v>1568.994965651614</v>
       </c>
       <c r="U36" t="n">
-        <v>4730.733409353095</v>
+        <v>1392.673868439434</v>
       </c>
       <c r="V36" t="n">
-        <v>4531.615891415095</v>
+        <v>1193.556350501433</v>
       </c>
       <c r="W36" t="n">
-        <v>4346.293137148288</v>
+        <v>1008.233596234627</v>
       </c>
       <c r="X36" t="n">
-        <v>4191.425701387168</v>
+        <v>853.3661604735071</v>
       </c>
       <c r="Y36" t="n">
-        <v>4064.939922166389</v>
+        <v>726.8803812527278</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1006.979339015265</v>
+        <v>1006.979339015264</v>
       </c>
       <c r="C37" t="n">
-        <v>834.4176274984903</v>
+        <v>834.4176274984894</v>
       </c>
       <c r="D37" t="n">
-        <v>668.539634700013</v>
+        <v>668.5396347000121</v>
       </c>
       <c r="E37" t="n">
-        <v>498.7816309507503</v>
+        <v>498.7816309507494</v>
       </c>
       <c r="F37" t="n">
-        <v>322.0745769125065</v>
+        <v>488.1929880179484</v>
       </c>
       <c r="G37" t="n">
-        <v>156.6801812021026</v>
+        <v>322.7985923075446</v>
       </c>
       <c r="H37" t="n">
-        <v>101.9076008136105</v>
+        <v>184.6468536339699</v>
       </c>
       <c r="I37" t="n">
         <v>101.9076008136105</v>
@@ -7101,10 +7101,10 @@
         <v>499.3067115447603</v>
       </c>
       <c r="L37" t="n">
-        <v>946.2046859165807</v>
+        <v>946.2046859165806</v>
       </c>
       <c r="M37" t="n">
-        <v>1435.936124380871</v>
+        <v>1435.93612438087</v>
       </c>
       <c r="N37" t="n">
         <v>1907.723279183419</v>
@@ -7113,34 +7113,34 @@
         <v>2354.666740455477</v>
       </c>
       <c r="P37" t="n">
-        <v>2725.511434597138</v>
+        <v>2725.511434597137</v>
       </c>
       <c r="Q37" t="n">
-        <v>2909.862092607743</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="R37" t="n">
-        <v>2909.862092607743</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="S37" t="n">
-        <v>2754.051792529778</v>
+        <v>2754.051792529777</v>
       </c>
       <c r="T37" t="n">
-        <v>2509.013557507972</v>
+        <v>2509.013557507971</v>
       </c>
       <c r="U37" t="n">
-        <v>2230.59129563001</v>
+        <v>2230.591295630009</v>
       </c>
       <c r="V37" t="n">
-        <v>1943.63578750044</v>
+        <v>1943.635787500439</v>
       </c>
       <c r="W37" t="n">
-        <v>1671.609383086732</v>
+        <v>1671.609383086731</v>
       </c>
       <c r="X37" t="n">
-        <v>1426.217628420144</v>
+        <v>1426.217628420143</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.797957734253</v>
+        <v>1198.797957734252</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2523.196138129057</v>
+        <v>2523.196138129056</v>
       </c>
       <c r="C38" t="n">
         <v>2085.05366531248</v>
@@ -7162,7 +7162,7 @@
         <v>1215.369135645219</v>
       </c>
       <c r="F38" t="n">
-        <v>787.5017060544271</v>
+        <v>787.5017060544274</v>
       </c>
       <c r="G38" t="n">
         <v>386.5427832236892</v>
@@ -7171,10 +7171,10 @@
         <v>101.9076008136105</v>
       </c>
       <c r="I38" t="n">
-        <v>118.0833989366494</v>
+        <v>118.0833989366493</v>
       </c>
       <c r="J38" t="n">
-        <v>154.5939020398737</v>
+        <v>154.5939020398736</v>
       </c>
       <c r="K38" t="n">
         <v>329.3699199592173</v>
@@ -7207,19 +7207,19 @@
         <v>4803.583890389444</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.396700390141</v>
+        <v>4544.39670039014</v>
       </c>
       <c r="V38" t="n">
-        <v>4181.779750323967</v>
+        <v>4181.779750323966</v>
       </c>
       <c r="W38" t="n">
-        <v>3776.924295735001</v>
+        <v>3776.924295735</v>
       </c>
       <c r="X38" t="n">
         <v>3357.781832314311</v>
       </c>
       <c r="Y38" t="n">
-        <v>2949.495708613965</v>
+        <v>2949.495708613964</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3943.636021086626</v>
+        <v>605.5764801729647</v>
       </c>
       <c r="C39" t="n">
-        <v>3837.179559923268</v>
+        <v>499.120019009607</v>
       </c>
       <c r="D39" t="n">
-        <v>3742.089271069821</v>
+        <v>404.0297301561603</v>
       </c>
       <c r="E39" t="n">
-        <v>3647.968856396775</v>
+        <v>309.909315483114</v>
       </c>
       <c r="F39" t="n">
-        <v>3564.585018012937</v>
+        <v>226.5254770992756</v>
       </c>
       <c r="G39" t="n">
-        <v>3479.434765054463</v>
+        <v>141.3752241408018</v>
       </c>
       <c r="H39" t="n">
-        <v>3439.967141727272</v>
+        <v>101.9076008136105</v>
       </c>
       <c r="I39" t="n">
-        <v>3473.955304622719</v>
+        <v>109.8320905486</v>
       </c>
       <c r="J39" t="n">
-        <v>3820.259035115226</v>
+        <v>131.5774960748942</v>
       </c>
       <c r="K39" t="n">
-        <v>4126.930284745478</v>
+        <v>168.7438576765643</v>
       </c>
       <c r="L39" t="n">
-        <v>4176.905044532823</v>
+        <v>218.7186174639091</v>
       </c>
       <c r="M39" t="n">
-        <v>4235.223232047517</v>
+        <v>277.0368049786028</v>
       </c>
       <c r="N39" t="n">
-        <v>4295.084928454542</v>
+        <v>336.8985013856275</v>
       </c>
       <c r="O39" t="n">
-        <v>4349.846685735303</v>
+        <v>391.6602586663889</v>
       </c>
       <c r="P39" t="n">
-        <v>4393.797823834918</v>
+        <v>1255.334563245202</v>
       </c>
       <c r="Q39" t="n">
-        <v>4963.91693434561</v>
+        <v>1743.030171526289</v>
       </c>
       <c r="R39" t="n">
-        <v>5095.380040680525</v>
+        <v>1757.320499766864</v>
       </c>
       <c r="S39" t="n">
-        <v>5036.286593232307</v>
+        <v>1698.227052318646</v>
       </c>
       <c r="T39" t="n">
-        <v>4907.054506565276</v>
+        <v>1568.994965651614</v>
       </c>
       <c r="U39" t="n">
-        <v>4730.733409353095</v>
+        <v>1392.673868439434</v>
       </c>
       <c r="V39" t="n">
-        <v>4531.615891415095</v>
+        <v>1193.556350501433</v>
       </c>
       <c r="W39" t="n">
-        <v>4346.293137148288</v>
+        <v>1008.233596234627</v>
       </c>
       <c r="X39" t="n">
-        <v>4191.425701387168</v>
+        <v>853.3661604735071</v>
       </c>
       <c r="Y39" t="n">
-        <v>4064.939922166389</v>
+        <v>726.8803812527278</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3192.497287088047</v>
+        <v>1173.097750120707</v>
       </c>
       <c r="C40" t="n">
-        <v>3019.935575571272</v>
+        <v>1000.536038603932</v>
       </c>
       <c r="D40" t="n">
-        <v>2854.057582772794</v>
+        <v>834.658045805455</v>
       </c>
       <c r="E40" t="n">
-        <v>2684.299579023532</v>
+        <v>664.9000420561922</v>
       </c>
       <c r="F40" t="n">
-        <v>2507.592524985288</v>
+        <v>488.1929880179484</v>
       </c>
       <c r="G40" t="n">
-        <v>2342.198129274884</v>
+        <v>322.7985923075446</v>
       </c>
       <c r="H40" t="n">
-        <v>2342.198129274884</v>
+        <v>184.6468536339699</v>
       </c>
       <c r="I40" t="n">
-        <v>2287.425548886392</v>
+        <v>101.9076008136105</v>
       </c>
       <c r="J40" t="n">
-        <v>2387.647602656941</v>
+        <v>202.1296545841591</v>
       </c>
       <c r="K40" t="n">
-        <v>2684.824659617542</v>
+        <v>499.3067115447603</v>
       </c>
       <c r="L40" t="n">
-        <v>3131.722633989363</v>
+        <v>946.2046859165806</v>
       </c>
       <c r="M40" t="n">
-        <v>3621.454072453653</v>
+        <v>1435.93612438087</v>
       </c>
       <c r="N40" t="n">
-        <v>4093.241227256201</v>
+        <v>1907.723279183419</v>
       </c>
       <c r="O40" t="n">
-        <v>4540.184688528259</v>
+        <v>2354.666740455477</v>
       </c>
       <c r="P40" t="n">
-        <v>4911.02938266992</v>
+        <v>2725.511434597137</v>
       </c>
       <c r="Q40" t="n">
-        <v>5095.380040680525</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="R40" t="n">
-        <v>5095.380040680525</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="S40" t="n">
-        <v>4939.56974060256</v>
+        <v>2909.862092607742</v>
       </c>
       <c r="T40" t="n">
-        <v>4694.531505580753</v>
+        <v>2664.823857585936</v>
       </c>
       <c r="U40" t="n">
-        <v>4416.109243702791</v>
+        <v>2396.709706735452</v>
       </c>
       <c r="V40" t="n">
-        <v>4129.153735573222</v>
+        <v>2109.754198605882</v>
       </c>
       <c r="W40" t="n">
-        <v>3857.127331159513</v>
+        <v>1837.727794192174</v>
       </c>
       <c r="X40" t="n">
-        <v>3611.735576492926</v>
+        <v>1592.336039525586</v>
       </c>
       <c r="Y40" t="n">
-        <v>3384.315905807034</v>
+        <v>1364.916368839695</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1359.224880943009</v>
+        <v>2220.814210052455</v>
       </c>
       <c r="C41" t="n">
-        <v>921.082408126432</v>
+        <v>1782.671737235878</v>
       </c>
       <c r="D41" t="n">
-        <v>485.1726233008766</v>
+        <v>1346.761952410322</v>
       </c>
       <c r="E41" t="n">
-        <v>485.1726233008766</v>
+        <v>912.9872075686176</v>
       </c>
       <c r="F41" t="n">
-        <v>57.30519371008433</v>
+        <v>485.1197779778253</v>
       </c>
       <c r="G41" t="n">
-        <v>57.30519371008433</v>
+        <v>84.16085514708749</v>
       </c>
       <c r="H41" t="n">
-        <v>57.30519371008433</v>
+        <v>57.30519371008432</v>
       </c>
       <c r="I41" t="n">
-        <v>73.48099183312321</v>
+        <v>73.48099183312317</v>
       </c>
       <c r="J41" t="n">
-        <v>545.2461823892654</v>
+        <v>545.2461823892652</v>
       </c>
       <c r="K41" t="n">
         <v>1254.397954551559</v>
       </c>
       <c r="L41" t="n">
-        <v>1322.282680022769</v>
+        <v>1958.653955765687</v>
       </c>
       <c r="M41" t="n">
-        <v>1397.817517095762</v>
+        <v>2034.188792838681</v>
       </c>
       <c r="N41" t="n">
-        <v>1474.574586801839</v>
+        <v>2110.945862544757</v>
       </c>
       <c r="O41" t="n">
-        <v>2014.271322140906</v>
+        <v>2183.425386893962</v>
       </c>
       <c r="P41" t="n">
-        <v>2076.130919299892</v>
+        <v>2245.284984052949</v>
       </c>
       <c r="Q41" t="n">
-        <v>2669.083686518751</v>
+        <v>2838.237751271807</v>
       </c>
       <c r="R41" t="n">
-        <v>2865.259685504217</v>
+        <v>2865.259685504216</v>
       </c>
       <c r="S41" t="n">
-        <v>2791.60944017999</v>
+        <v>2865.259685504216</v>
       </c>
       <c r="T41" t="n">
-        <v>2791.60944017999</v>
+        <v>2647.113780537362</v>
       </c>
       <c r="U41" t="n">
-        <v>2791.60944017999</v>
+        <v>2647.113780537362</v>
       </c>
       <c r="V41" t="n">
-        <v>2791.60944017999</v>
+        <v>2647.113780537362</v>
       </c>
       <c r="W41" t="n">
-        <v>2612.953038548952</v>
+        <v>2647.113780537362</v>
       </c>
       <c r="X41" t="n">
-        <v>2193.810575128263</v>
+        <v>2647.113780537362</v>
       </c>
       <c r="Y41" t="n">
-        <v>1785.524451427917</v>
+        <v>2647.113780537362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1713.515665910318</v>
+        <v>560.9740730694385</v>
       </c>
       <c r="C42" t="n">
-        <v>1607.05920474696</v>
+        <v>454.5176119060808</v>
       </c>
       <c r="D42" t="n">
-        <v>1511.968915893513</v>
+        <v>359.4273230526341</v>
       </c>
       <c r="E42" t="n">
-        <v>1417.848501220467</v>
+        <v>265.3069083795878</v>
       </c>
       <c r="F42" t="n">
-        <v>1334.464662836629</v>
+        <v>181.9230699957494</v>
       </c>
       <c r="G42" t="n">
-        <v>1249.314409878155</v>
+        <v>96.77281703727566</v>
       </c>
       <c r="H42" t="n">
-        <v>1209.846786550964</v>
+        <v>57.30519371008432</v>
       </c>
       <c r="I42" t="n">
-        <v>1243.834949446411</v>
+        <v>65.22968344507386</v>
       </c>
       <c r="J42" t="n">
-        <v>1590.138679938917</v>
+        <v>152.2893426603381</v>
       </c>
       <c r="K42" t="n">
-        <v>1896.809929569171</v>
+        <v>861.4411148226316</v>
       </c>
       <c r="L42" t="n">
-        <v>1946.784689356516</v>
+        <v>911.4158746099764</v>
       </c>
       <c r="M42" t="n">
-        <v>2005.10287687121</v>
+        <v>969.73406212467</v>
       </c>
       <c r="N42" t="n">
-        <v>2064.964573278235</v>
+        <v>1029.595758531695</v>
       </c>
       <c r="O42" t="n">
-        <v>2119.726330558996</v>
+        <v>1084.357515812456</v>
       </c>
       <c r="P42" t="n">
-        <v>2163.67746865861</v>
+        <v>1128.308653912071</v>
       </c>
       <c r="Q42" t="n">
-        <v>2733.796579169302</v>
+        <v>1698.427764422762</v>
       </c>
       <c r="R42" t="n">
-        <v>2865.259685504217</v>
+        <v>1712.718092663337</v>
       </c>
       <c r="S42" t="n">
-        <v>2806.166238055999</v>
+        <v>1653.624645215119</v>
       </c>
       <c r="T42" t="n">
-        <v>2676.934151388967</v>
+        <v>1524.392558548088</v>
       </c>
       <c r="U42" t="n">
-        <v>2500.613054176787</v>
+        <v>1348.071461335908</v>
       </c>
       <c r="V42" t="n">
-        <v>2301.495536238786</v>
+        <v>1148.953943397907</v>
       </c>
       <c r="W42" t="n">
-        <v>2116.17278197198</v>
+        <v>963.6311891311009</v>
       </c>
       <c r="X42" t="n">
-        <v>1961.30534621086</v>
+        <v>808.7637533699809</v>
       </c>
       <c r="Y42" t="n">
-        <v>1834.819566990081</v>
+        <v>682.2779741492017</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1045.756090196822</v>
+        <v>1128.495343017181</v>
       </c>
       <c r="C43" t="n">
-        <v>873.1943786800467</v>
+        <v>955.933631500406</v>
       </c>
       <c r="D43" t="n">
-        <v>707.3163858815694</v>
+        <v>790.0556387019287</v>
       </c>
       <c r="E43" t="n">
-        <v>537.5583821323066</v>
+        <v>620.297634952666</v>
       </c>
       <c r="F43" t="n">
-        <v>360.8513280940629</v>
+        <v>443.5905809144223</v>
       </c>
       <c r="G43" t="n">
-        <v>195.456932383659</v>
+        <v>278.1961852040184</v>
       </c>
       <c r="H43" t="n">
-        <v>57.30519371008433</v>
+        <v>140.0444465304437</v>
       </c>
       <c r="I43" t="n">
-        <v>57.30519371008433</v>
+        <v>57.30519371008432</v>
       </c>
       <c r="J43" t="n">
         <v>157.5272474806329</v>
       </c>
       <c r="K43" t="n">
-        <v>454.7043044412342</v>
+        <v>454.7043044412341</v>
       </c>
       <c r="L43" t="n">
-        <v>901.6022788130546</v>
+        <v>901.6022788130545</v>
       </c>
       <c r="M43" t="n">
         <v>1391.333717277344</v>
@@ -7587,34 +7587,34 @@
         <v>2310.064333351951</v>
       </c>
       <c r="P43" t="n">
-        <v>2680.909027493612</v>
+        <v>2680.909027493611</v>
       </c>
       <c r="Q43" t="n">
         <v>2865.259685504217</v>
       </c>
       <c r="R43" t="n">
-        <v>2852.694271833216</v>
+        <v>2865.259685504217</v>
       </c>
       <c r="S43" t="n">
-        <v>2792.828543711335</v>
+        <v>2709.449385426251</v>
       </c>
       <c r="T43" t="n">
-        <v>2547.790308689528</v>
+        <v>2464.411150404445</v>
       </c>
       <c r="U43" t="n">
-        <v>2269.368046811566</v>
+        <v>2185.988888526483</v>
       </c>
       <c r="V43" t="n">
-        <v>1982.412538681997</v>
+        <v>1899.033380396914</v>
       </c>
       <c r="W43" t="n">
-        <v>1710.386134268288</v>
+        <v>1627.006975983205</v>
       </c>
       <c r="X43" t="n">
-        <v>1464.994379601701</v>
+        <v>1381.615221316618</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.574708915809</v>
+        <v>1320.313961736168</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2077.634808194793</v>
+        <v>1611.531527898273</v>
       </c>
       <c r="C44" t="n">
-        <v>1639.492335378216</v>
+        <v>1173.389055081696</v>
       </c>
       <c r="D44" t="n">
-        <v>1203.58255055266</v>
+        <v>1173.389055081696</v>
       </c>
       <c r="E44" t="n">
-        <v>769.8078057109553</v>
+        <v>886.1315461316144</v>
       </c>
       <c r="F44" t="n">
-        <v>341.9403761201631</v>
+        <v>458.2641165408222</v>
       </c>
       <c r="G44" t="n">
-        <v>341.9403761201631</v>
+        <v>57.30519371008432</v>
       </c>
       <c r="H44" t="n">
-        <v>57.30519371008433</v>
+        <v>57.30519371008432</v>
       </c>
       <c r="I44" t="n">
-        <v>73.48099183312321</v>
+        <v>73.48099183312317</v>
       </c>
       <c r="J44" t="n">
-        <v>109.9914949363475</v>
+        <v>545.2461823892652</v>
       </c>
       <c r="K44" t="n">
-        <v>360.835267263414</v>
+        <v>599.96596216943</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.987039425708</v>
+        <v>1309.117734331724</v>
       </c>
       <c r="M44" t="n">
-        <v>1779.138811588001</v>
+        <v>1384.652571404717</v>
       </c>
       <c r="N44" t="n">
-        <v>2488.290583750294</v>
+        <v>1840.998408746987</v>
       </c>
       <c r="O44" t="n">
-        <v>2560.7701080995</v>
+        <v>1913.477933096193</v>
       </c>
       <c r="P44" t="n">
-        <v>2622.629705258487</v>
+        <v>2622.629705258486</v>
       </c>
       <c r="Q44" t="n">
-        <v>2669.083686518751</v>
+        <v>2669.08368651875</v>
       </c>
       <c r="R44" t="n">
-        <v>2865.259685504217</v>
+        <v>2865.259685504216</v>
       </c>
       <c r="S44" t="n">
-        <v>2791.60944017999</v>
+        <v>2865.259685504216</v>
       </c>
       <c r="T44" t="n">
-        <v>2573.463535213136</v>
+        <v>2865.259685504216</v>
       </c>
       <c r="U44" t="n">
-        <v>2503.9343786797</v>
+        <v>2865.259685504216</v>
       </c>
       <c r="V44" t="n">
-        <v>2503.9343786797</v>
+        <v>2865.259685504216</v>
       </c>
       <c r="W44" t="n">
-        <v>2503.9343786797</v>
+        <v>2865.259685504216</v>
       </c>
       <c r="X44" t="n">
-        <v>2503.9343786797</v>
+        <v>2446.117222083527</v>
       </c>
       <c r="Y44" t="n">
-        <v>2503.9343786797</v>
+        <v>2037.83109838318</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>96.77281703727566</v>
       </c>
       <c r="H45" t="n">
-        <v>57.30519371008433</v>
+        <v>57.30519371008432</v>
       </c>
       <c r="I45" t="n">
-        <v>91.29335660553147</v>
+        <v>65.22968344507386</v>
       </c>
       <c r="J45" t="n">
-        <v>437.5970870980381</v>
+        <v>86.97508897136808</v>
       </c>
       <c r="K45" t="n">
-        <v>744.2683367282915</v>
+        <v>124.1414505730381</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2430965156365</v>
+        <v>786.9541791793733</v>
       </c>
       <c r="M45" t="n">
-        <v>852.5612840303302</v>
+        <v>845.2723666940669</v>
       </c>
       <c r="N45" t="n">
-        <v>912.422980437355</v>
+        <v>905.1340631010918</v>
       </c>
       <c r="O45" t="n">
-        <v>967.1847377181166</v>
+        <v>959.8958203818531</v>
       </c>
       <c r="P45" t="n">
-        <v>1011.135875817731</v>
+        <v>1669.047592544147</v>
       </c>
       <c r="Q45" t="n">
-        <v>1581.254986328423</v>
+        <v>1698.427764422762</v>
       </c>
       <c r="R45" t="n">
         <v>1712.718092663337</v>
@@ -7803,16 +7803,16 @@
         <v>140.0444465304437</v>
       </c>
       <c r="I46" t="n">
-        <v>57.30519371008433</v>
+        <v>57.30519371008432</v>
       </c>
       <c r="J46" t="n">
         <v>157.5272474806329</v>
       </c>
       <c r="K46" t="n">
-        <v>454.7043044412342</v>
+        <v>454.7043044412339</v>
       </c>
       <c r="L46" t="n">
-        <v>901.6022788130545</v>
+        <v>901.6022788130541</v>
       </c>
       <c r="M46" t="n">
         <v>1391.333717277344</v>
@@ -7821,22 +7821,22 @@
         <v>1863.120872079893</v>
       </c>
       <c r="O46" t="n">
-        <v>2310.064333351951</v>
+        <v>2310.06433335195</v>
       </c>
       <c r="P46" t="n">
         <v>2680.909027493611</v>
       </c>
       <c r="Q46" t="n">
-        <v>2865.259685504217</v>
+        <v>2865.259685504216</v>
       </c>
       <c r="R46" t="n">
-        <v>2865.259685504217</v>
+        <v>2865.259685504216</v>
       </c>
       <c r="S46" t="n">
         <v>2709.449385426251</v>
       </c>
       <c r="T46" t="n">
-        <v>2464.411150404445</v>
+        <v>2464.411150404444</v>
       </c>
       <c r="U46" t="n">
         <v>2352.107299631925</v>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>466.3240083888435</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,13 +8139,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>268.4844955855467</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>661.0424165476049</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>643.1032806192811</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>653.8304798013205</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>540.9877643416226</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>678.7731419804279</v>
       </c>
       <c r="L12" t="n">
-        <v>139.6549657576114</v>
+        <v>39.64705103890128</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>406.1983351364324</v>
+        <v>661.0424165476049</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>640.0171061508078</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>638.7825277335534</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>471.9365767574373</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>272.2271596248323</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>272.2271596248316</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9169,19 +9169,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>671.0376950332266</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>421.7951784479096</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>272.2271596248327</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>275.50177560109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>121.2689274133114</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>671.0376950332266</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>272.2271596248327</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>272.2271596248318</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9643,7 +9643,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>841.9003867029785</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>137.1375129178077</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>272.2271596248327</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>272.2271596248318</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9880,16 +9880,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>671.0376950332266</v>
       </c>
       <c r="M26" t="n">
-        <v>575.1990084851927</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>57.1375193729458</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>272.2271596248318</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>121.2689274133114</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>24.76973664944717</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>272.227159624832</v>
+        <v>272.2271596248327</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>195.6324283192002</v>
       </c>
       <c r="K32" t="n">
-        <v>121.2689274133118</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>272.2271596248302</v>
+        <v>272.2271596248327</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>121.268927413312</v>
       </c>
       <c r="L35" t="n">
-        <v>1036.325393574728</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>462.9448852550196</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>744.7471356056503</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>121.2689274133119</v>
+        <v>121.268927413312</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>272.2271596248311</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>462.9448852550215</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>661.0424165476047</v>
+        <v>661.0424165476046</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>642.7992684271906</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>471.9365767574361</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>65.97399362522231</v>
       </c>
       <c r="K42" t="n">
-        <v>272.2271596248322</v>
+        <v>678.7731419804278</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>198.1050429766683</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>647.7444916071556</v>
       </c>
       <c r="M44" t="n">
-        <v>640.0171061508076</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>638.782527733553</v>
+        <v>383.4229976123172</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>653.8304798013201</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>272.2271596248318</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>619.0282513323135</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>671.9198323865443</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>189.9685292377665</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>281.788830585978</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.91374287098475</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>50.63613057206862</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>136.7702212868389</v>
       </c>
       <c r="I13" t="n">
-        <v>40.12676524183959</v>
+        <v>27.68700570754916</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>12.4397595342911</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>114.2116050713839</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>281.788830585978</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>72.91374287098475</v>
       </c>
       <c r="T14" t="n">
-        <v>215.9644459171853</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5953180993102</v>
+        <v>10.67653574641719</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>94.98512623652229</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.91186029215581</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>12.4397595342911</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>164.457226994388</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>82.54536670223264</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.91186029215581</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.43975953429109</v>
+        <v>12.4397595342911</v>
       </c>
       <c r="S19" t="n">
-        <v>154.2521970771855</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>10.20502991720234</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>10.20502991720227</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>164.4572269943884</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.43975953429109</v>
+        <v>12.4397595342911</v>
       </c>
       <c r="S22" t="n">
-        <v>154.2521970771855</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>94.98512623652309</v>
+        <v>82.54536670223264</v>
       </c>
       <c r="I25" t="n">
         <v>81.91186029215581</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>12.4397595342911</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>94.98512623652263</v>
+        <v>136.7702212868389</v>
       </c>
       <c r="I28" t="n">
-        <v>81.91186029215581</v>
+        <v>27.68700570754952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>12.4397595342911</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>82.54536670223264</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.91186029215581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>12.4397595342911</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>176.8969865286734</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>94.98512623652263</v>
+        <v>82.54536670223264</v>
       </c>
       <c r="I34" t="n">
         <v>81.91186029215581</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>12.4397595342911</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>164.4572269943884</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>82.54536670223172</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.91186029215581</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>12.43975953429109</v>
+        <v>12.4397595342911</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.7702212868389</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>27.68700570754887</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>12.43975953429109</v>
+        <v>12.43975953429111</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>154.2521970771855</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>10.20502991720281</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9493336024304</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>281.788830585978</v>
+        <v>255.2017257633449</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>72.91374287098476</v>
       </c>
       <c r="T41" t="n">
-        <v>215.9644459171853</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.5953180993102</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>223.9370624283502</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.91186029215581</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>12.43975953429111</v>
       </c>
       <c r="S43" t="n">
-        <v>94.98512623652269</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.4572269943879</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>145.0520635327071</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9493336024304</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>281.788830585978</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>72.91374287098476</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.9644459171853</v>
       </c>
       <c r="U44" t="n">
-        <v>187.761453131209</v>
+        <v>256.5953180993102</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.43975953429109</v>
+        <v>12.43975953429111</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>164.4572269943878</v>
+        <v>164.4572269943883</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>680415.4891508002</v>
+        <v>680415.4891508</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>455820.2824527598</v>
+        <v>455820.2824527597</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>348495.7579287654</v>
       </c>
       <c r="C2" t="n">
-        <v>348495.7579287655</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287653</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
         <v>233788.2532919653</v>
@@ -26331,22 +26331,22 @@
         <v>345736.1649389182</v>
       </c>
       <c r="H2" t="n">
-        <v>345736.1649389183</v>
+        <v>345736.1649389182</v>
       </c>
       <c r="I2" t="n">
-        <v>345736.1649389182</v>
+        <v>345736.1649389181</v>
       </c>
       <c r="J2" t="n">
-        <v>345736.1649389182</v>
+        <v>345736.1649389181</v>
       </c>
       <c r="K2" t="n">
-        <v>345736.1649389182</v>
+        <v>345736.1649389181</v>
       </c>
       <c r="L2" t="n">
-        <v>345736.1649389182</v>
+        <v>345736.1649389181</v>
       </c>
       <c r="M2" t="n">
-        <v>345736.1649389182</v>
+        <v>345736.1649389181</v>
       </c>
       <c r="N2" t="n">
         <v>345736.1649389181</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101407.7129770791</v>
+        <v>101407.712977079</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>12161.08411909378</v>
+        <v>12161.0841190938</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>60725.73453902046</v>
+        <v>60725.73453902047</v>
       </c>
       <c r="F4" t="n">
-        <v>60725.73453902047</v>
+        <v>60725.73453902049</v>
       </c>
       <c r="G4" t="n">
+        <v>96134.2159292413</v>
+      </c>
+      <c r="H4" t="n">
+        <v>96134.2159292413</v>
+      </c>
+      <c r="I4" t="n">
+        <v>96134.2159292413</v>
+      </c>
+      <c r="J4" t="n">
+        <v>96134.2159292413</v>
+      </c>
+      <c r="K4" t="n">
+        <v>96134.2159292413</v>
+      </c>
+      <c r="L4" t="n">
         <v>96134.21592924128</v>
       </c>
-      <c r="H4" t="n">
-        <v>96134.21592924125</v>
-      </c>
-      <c r="I4" t="n">
-        <v>96134.21592924125</v>
-      </c>
-      <c r="J4" t="n">
-        <v>96134.21592924128</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>96134.21592924127</v>
       </c>
-      <c r="L4" t="n">
-        <v>96134.21592924124</v>
-      </c>
-      <c r="M4" t="n">
-        <v>96134.21592924123</v>
-      </c>
       <c r="N4" t="n">
-        <v>96134.21592924125</v>
+        <v>96134.21592924127</v>
       </c>
       <c r="O4" t="n">
         <v>60725.73453902046</v>
@@ -26508,10 +26508,10 @@
         <v>79806.06702297807</v>
       </c>
       <c r="O5" t="n">
-        <v>45908.23762429818</v>
+        <v>45908.23762429817</v>
       </c>
       <c r="P5" t="n">
-        <v>45908.23762429818</v>
+        <v>45908.23762429817</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-131932.4474903648</v>
       </c>
       <c r="C6" t="n">
-        <v>91767.2510936801</v>
+        <v>91767.25109367997</v>
       </c>
       <c r="D6" t="n">
-        <v>91767.25109367994</v>
+        <v>91767.25109368005</v>
       </c>
       <c r="E6" t="n">
-        <v>25746.56815156749</v>
+        <v>25305.38544142605</v>
       </c>
       <c r="F6" t="n">
-        <v>127154.2811286467</v>
+        <v>126713.098418505</v>
       </c>
       <c r="G6" t="n">
-        <v>16985.24759957423</v>
+        <v>16974.63378038249</v>
       </c>
       <c r="H6" t="n">
-        <v>169795.881986699</v>
+        <v>169785.2681675071</v>
       </c>
       <c r="I6" t="n">
-        <v>169795.8819866989</v>
+        <v>169785.268167507</v>
       </c>
       <c r="J6" t="n">
-        <v>-4855.466731007284</v>
+        <v>-4866.080550199077</v>
       </c>
       <c r="K6" t="n">
-        <v>169795.8819866989</v>
+        <v>169785.268167507</v>
       </c>
       <c r="L6" t="n">
-        <v>169795.8819866989</v>
+        <v>169785.2681675071</v>
       </c>
       <c r="M6" t="n">
-        <v>157634.7978676051</v>
+        <v>157624.1840484133</v>
       </c>
       <c r="N6" t="n">
-        <v>169795.8819866988</v>
+        <v>169785.2681675071</v>
       </c>
       <c r="O6" t="n">
-        <v>127154.2811286466</v>
+        <v>126713.098418505</v>
       </c>
       <c r="P6" t="n">
-        <v>127154.2811286466</v>
+        <v>126713.098418505</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="F3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="G3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="H3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="I3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="J3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="K3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="L3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="P3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
     </row>
     <row r="4">
@@ -26828,10 +26828,10 @@
         <v>1273.845010170131</v>
       </c>
       <c r="O4" t="n">
-        <v>716.3149213760541</v>
+        <v>716.314921376054</v>
       </c>
       <c r="P4" t="n">
-        <v>716.3149213760541</v>
+        <v>716.314921376054</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>108.0867158089033</v>
+        <v>108.0867158089031</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.7997147681973</v>
+        <v>48.79971476819735</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>48.79971476819708</v>
+        <v>48.79971476819713</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>48.7997147681973</v>
+        <v>48.79971476819735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.742286579561437</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>215.4845050789322</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>55.87832135360793</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.14686572942469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.4631102447382</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,76 +27852,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>192.9103908314123</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4126214791313976</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>217.8665548556918</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>358.9907805655117</v>
+      </c>
+      <c r="W8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>289.9811395907773</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>84.34995760698664</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383038</v>
       </c>
       <c r="H11" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237904</v>
       </c>
       <c r="I11" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J11" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386289</v>
       </c>
       <c r="K11" t="n">
-        <v>55.27250482844937</v>
+        <v>55.2725048284493</v>
       </c>
       <c r="L11" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889842</v>
       </c>
       <c r="M11" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524648</v>
       </c>
       <c r="N11" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250095</v>
       </c>
       <c r="O11" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677318</v>
       </c>
       <c r="P11" t="n">
-        <v>62.48444157473388</v>
+        <v>62.4844415747338</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420578</v>
       </c>
       <c r="R11" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303925</v>
       </c>
       <c r="S11" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016607</v>
       </c>
       <c r="T11" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506426</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306429</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889615</v>
       </c>
       <c r="H12" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I12" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848017</v>
       </c>
       <c r="J12" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K12" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L12" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075236</v>
       </c>
       <c r="M12" t="n">
-        <v>58.90726011585228</v>
+        <v>58.9072601158522</v>
       </c>
       <c r="N12" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709573</v>
       </c>
       <c r="O12" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420348</v>
       </c>
       <c r="P12" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950967</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.67694129153134</v>
+        <v>29.6769412915313</v>
       </c>
       <c r="R12" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S12" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365137</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432259</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.015295289972958</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H13" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I13" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915601</v>
       </c>
       <c r="J13" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K13" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865216</v>
       </c>
       <c r="L13" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702954</v>
       </c>
       <c r="M13" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644125</v>
       </c>
       <c r="N13" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313554</v>
       </c>
       <c r="O13" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R13" t="n">
-        <v>8.763883547390744</v>
+        <v>8.763883547390733</v>
       </c>
       <c r="S13" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407288</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383038</v>
       </c>
       <c r="H14" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237904</v>
       </c>
       <c r="I14" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J14" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386289</v>
       </c>
       <c r="K14" t="n">
-        <v>55.27250482844937</v>
+        <v>55.2725048284493</v>
       </c>
       <c r="L14" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889842</v>
       </c>
       <c r="M14" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524648</v>
       </c>
       <c r="N14" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250095</v>
       </c>
       <c r="O14" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677318</v>
       </c>
       <c r="P14" t="n">
-        <v>62.48444157473388</v>
+        <v>62.4844415747338</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420578</v>
       </c>
       <c r="R14" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303925</v>
       </c>
       <c r="S14" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016607</v>
       </c>
       <c r="T14" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506426</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306429</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889615</v>
       </c>
       <c r="H15" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I15" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848017</v>
       </c>
       <c r="J15" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K15" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L15" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075236</v>
       </c>
       <c r="M15" t="n">
-        <v>58.90726011585228</v>
+        <v>58.9072601158522</v>
       </c>
       <c r="N15" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709573</v>
       </c>
       <c r="O15" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420348</v>
       </c>
       <c r="P15" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950967</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.67694129153134</v>
+        <v>29.6769412915313</v>
       </c>
       <c r="R15" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S15" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365137</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432259</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.015295289972958</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H16" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I16" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915601</v>
       </c>
       <c r="J16" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K16" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865216</v>
       </c>
       <c r="L16" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702954</v>
       </c>
       <c r="M16" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644125</v>
       </c>
       <c r="N16" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313554</v>
       </c>
       <c r="O16" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P16" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R16" t="n">
-        <v>8.763883547390744</v>
+        <v>8.763883547390733</v>
       </c>
       <c r="S16" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407288</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383038</v>
       </c>
       <c r="H17" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237904</v>
       </c>
       <c r="I17" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J17" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386289</v>
       </c>
       <c r="K17" t="n">
-        <v>55.27250482844937</v>
+        <v>55.2725048284493</v>
       </c>
       <c r="L17" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889842</v>
       </c>
       <c r="M17" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524648</v>
       </c>
       <c r="N17" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250095</v>
       </c>
       <c r="O17" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677318</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48444157473388</v>
+        <v>62.4844415747338</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420578</v>
       </c>
       <c r="R17" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303925</v>
       </c>
       <c r="S17" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016607</v>
       </c>
       <c r="T17" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506426</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306429</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889615</v>
       </c>
       <c r="H18" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I18" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848017</v>
       </c>
       <c r="J18" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K18" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L18" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075236</v>
       </c>
       <c r="M18" t="n">
-        <v>58.90726011585228</v>
+        <v>58.9072601158522</v>
       </c>
       <c r="N18" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709573</v>
       </c>
       <c r="O18" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420348</v>
       </c>
       <c r="P18" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950967</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.67694129153134</v>
+        <v>29.6769412915313</v>
       </c>
       <c r="R18" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S18" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365137</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432259</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.015295289972958</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H19" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I19" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915601</v>
       </c>
       <c r="J19" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K19" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865216</v>
       </c>
       <c r="L19" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702954</v>
       </c>
       <c r="M19" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644125</v>
       </c>
       <c r="N19" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313554</v>
       </c>
       <c r="O19" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P19" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R19" t="n">
-        <v>8.763883547390744</v>
+        <v>8.763883547390733</v>
       </c>
       <c r="S19" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407288</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383038</v>
       </c>
       <c r="H20" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237904</v>
       </c>
       <c r="I20" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J20" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386289</v>
       </c>
       <c r="K20" t="n">
-        <v>55.27250482844937</v>
+        <v>55.2725048284493</v>
       </c>
       <c r="L20" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889842</v>
       </c>
       <c r="M20" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524648</v>
       </c>
       <c r="N20" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250095</v>
       </c>
       <c r="O20" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677318</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48444157473388</v>
+        <v>62.4844415747338</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420578</v>
       </c>
       <c r="R20" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303925</v>
       </c>
       <c r="S20" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016607</v>
       </c>
       <c r="T20" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506426</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306429</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889615</v>
       </c>
       <c r="H21" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I21" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848017</v>
       </c>
       <c r="J21" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K21" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L21" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075236</v>
       </c>
       <c r="M21" t="n">
-        <v>58.90726011585228</v>
+        <v>58.9072601158522</v>
       </c>
       <c r="N21" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709573</v>
       </c>
       <c r="O21" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420348</v>
       </c>
       <c r="P21" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950967</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.67694129153134</v>
+        <v>29.6769412915313</v>
       </c>
       <c r="R21" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S21" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365137</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432259</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.015295289972958</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H22" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I22" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915601</v>
       </c>
       <c r="J22" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K22" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865216</v>
       </c>
       <c r="L22" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702954</v>
       </c>
       <c r="M22" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644125</v>
       </c>
       <c r="N22" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313554</v>
       </c>
       <c r="O22" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P22" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R22" t="n">
-        <v>8.763883547390744</v>
+        <v>8.763883547390733</v>
       </c>
       <c r="S22" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407288</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383038</v>
       </c>
       <c r="H23" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237904</v>
       </c>
       <c r="I23" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J23" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386289</v>
       </c>
       <c r="K23" t="n">
-        <v>55.27250482844937</v>
+        <v>55.2725048284493</v>
       </c>
       <c r="L23" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889842</v>
       </c>
       <c r="M23" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524648</v>
       </c>
       <c r="N23" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250095</v>
       </c>
       <c r="O23" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677318</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48444157473388</v>
+        <v>62.4844415747338</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420578</v>
       </c>
       <c r="R23" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303925</v>
       </c>
       <c r="S23" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016607</v>
       </c>
       <c r="T23" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506426</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306429</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889615</v>
       </c>
       <c r="H24" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I24" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848017</v>
       </c>
       <c r="J24" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K24" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L24" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075236</v>
       </c>
       <c r="M24" t="n">
-        <v>58.90726011585228</v>
+        <v>58.9072601158522</v>
       </c>
       <c r="N24" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709573</v>
       </c>
       <c r="O24" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420348</v>
       </c>
       <c r="P24" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950967</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.67694129153134</v>
+        <v>29.6769412915313</v>
       </c>
       <c r="R24" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S24" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365137</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432259</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.015295289972958</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H25" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I25" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915601</v>
       </c>
       <c r="J25" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K25" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865216</v>
       </c>
       <c r="L25" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702954</v>
       </c>
       <c r="M25" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644125</v>
       </c>
       <c r="N25" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313554</v>
       </c>
       <c r="O25" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P25" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R25" t="n">
-        <v>8.763883547390744</v>
+        <v>8.763883547390733</v>
       </c>
       <c r="S25" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407288</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383038</v>
       </c>
       <c r="H26" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237904</v>
       </c>
       <c r="I26" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J26" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386289</v>
       </c>
       <c r="K26" t="n">
-        <v>55.27250482844937</v>
+        <v>55.2725048284493</v>
       </c>
       <c r="L26" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889842</v>
       </c>
       <c r="M26" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524648</v>
       </c>
       <c r="N26" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250095</v>
       </c>
       <c r="O26" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677318</v>
       </c>
       <c r="P26" t="n">
-        <v>62.48444157473388</v>
+        <v>62.4844415747338</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420578</v>
       </c>
       <c r="R26" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303925</v>
       </c>
       <c r="S26" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016607</v>
       </c>
       <c r="T26" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506426</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306429</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889615</v>
       </c>
       <c r="H27" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I27" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848017</v>
       </c>
       <c r="J27" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K27" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L27" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075236</v>
       </c>
       <c r="M27" t="n">
-        <v>58.90726011585228</v>
+        <v>58.9072601158522</v>
       </c>
       <c r="N27" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709573</v>
       </c>
       <c r="O27" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420348</v>
       </c>
       <c r="P27" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950967</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.67694129153134</v>
+        <v>29.6769412915313</v>
       </c>
       <c r="R27" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S27" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365137</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432259</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.015295289972958</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H28" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I28" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915601</v>
       </c>
       <c r="J28" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K28" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865216</v>
       </c>
       <c r="L28" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702954</v>
       </c>
       <c r="M28" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644125</v>
       </c>
       <c r="N28" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313554</v>
       </c>
       <c r="O28" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P28" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R28" t="n">
-        <v>8.763883547390744</v>
+        <v>8.763883547390733</v>
       </c>
       <c r="S28" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407288</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383038</v>
       </c>
       <c r="H29" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237904</v>
       </c>
       <c r="I29" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J29" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386289</v>
       </c>
       <c r="K29" t="n">
-        <v>55.27250482844937</v>
+        <v>55.2725048284493</v>
       </c>
       <c r="L29" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889842</v>
       </c>
       <c r="M29" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524648</v>
       </c>
       <c r="N29" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250095</v>
       </c>
       <c r="O29" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677318</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48444157473388</v>
+        <v>62.4844415747338</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420578</v>
       </c>
       <c r="R29" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303925</v>
       </c>
       <c r="S29" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016607</v>
       </c>
       <c r="T29" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506426</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306429</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889615</v>
       </c>
       <c r="H30" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I30" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848017</v>
       </c>
       <c r="J30" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K30" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L30" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075236</v>
       </c>
       <c r="M30" t="n">
-        <v>58.90726011585228</v>
+        <v>58.9072601158522</v>
       </c>
       <c r="N30" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709573</v>
       </c>
       <c r="O30" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420348</v>
       </c>
       <c r="P30" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950967</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.67694129153134</v>
+        <v>29.6769412915313</v>
       </c>
       <c r="R30" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S30" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365137</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432259</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.015295289972958</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H31" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I31" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915601</v>
       </c>
       <c r="J31" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K31" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865216</v>
       </c>
       <c r="L31" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702954</v>
       </c>
       <c r="M31" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644125</v>
       </c>
       <c r="N31" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313554</v>
       </c>
       <c r="O31" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P31" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R31" t="n">
-        <v>8.763883547390744</v>
+        <v>8.763883547390733</v>
       </c>
       <c r="S31" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407288</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383038</v>
       </c>
       <c r="H32" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237904</v>
       </c>
       <c r="I32" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J32" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386289</v>
       </c>
       <c r="K32" t="n">
-        <v>55.27250482844937</v>
+        <v>55.2725048284493</v>
       </c>
       <c r="L32" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889842</v>
       </c>
       <c r="M32" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524648</v>
       </c>
       <c r="N32" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250095</v>
       </c>
       <c r="O32" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677318</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48444157473388</v>
+        <v>62.4844415747338</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420578</v>
       </c>
       <c r="R32" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303925</v>
       </c>
       <c r="S32" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016607</v>
       </c>
       <c r="T32" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506426</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306429</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889615</v>
       </c>
       <c r="H33" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I33" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848017</v>
       </c>
       <c r="J33" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K33" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L33" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075236</v>
       </c>
       <c r="M33" t="n">
-        <v>58.90726011585228</v>
+        <v>58.9072601158522</v>
       </c>
       <c r="N33" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709573</v>
       </c>
       <c r="O33" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420348</v>
       </c>
       <c r="P33" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950967</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.67694129153134</v>
+        <v>29.6769412915313</v>
       </c>
       <c r="R33" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S33" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365137</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432259</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.015295289972958</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H34" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I34" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915601</v>
       </c>
       <c r="J34" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K34" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865216</v>
       </c>
       <c r="L34" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702954</v>
       </c>
       <c r="M34" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644125</v>
       </c>
       <c r="N34" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313554</v>
       </c>
       <c r="O34" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P34" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R34" t="n">
-        <v>8.763883547390744</v>
+        <v>8.763883547390733</v>
       </c>
       <c r="S34" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407288</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383038</v>
       </c>
       <c r="H35" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237904</v>
       </c>
       <c r="I35" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J35" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386289</v>
       </c>
       <c r="K35" t="n">
-        <v>55.27250482844937</v>
+        <v>55.2725048284493</v>
       </c>
       <c r="L35" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889842</v>
       </c>
       <c r="M35" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524648</v>
       </c>
       <c r="N35" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250095</v>
       </c>
       <c r="O35" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677318</v>
       </c>
       <c r="P35" t="n">
-        <v>62.48444157473388</v>
+        <v>62.4844415747338</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420578</v>
       </c>
       <c r="R35" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303925</v>
       </c>
       <c r="S35" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016607</v>
       </c>
       <c r="T35" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506426</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306429</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889615</v>
       </c>
       <c r="H36" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I36" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848017</v>
       </c>
       <c r="J36" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K36" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L36" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075236</v>
       </c>
       <c r="M36" t="n">
-        <v>58.90726011585228</v>
+        <v>58.9072601158522</v>
       </c>
       <c r="N36" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709573</v>
       </c>
       <c r="O36" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420348</v>
       </c>
       <c r="P36" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950967</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.67694129153134</v>
+        <v>29.6769412915313</v>
       </c>
       <c r="R36" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S36" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365137</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432259</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.015295289972958</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H37" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I37" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915601</v>
       </c>
       <c r="J37" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K37" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865216</v>
       </c>
       <c r="L37" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702954</v>
       </c>
       <c r="M37" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644125</v>
       </c>
       <c r="N37" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313554</v>
       </c>
       <c r="O37" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P37" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R37" t="n">
-        <v>8.763883547390744</v>
+        <v>8.763883547390733</v>
       </c>
       <c r="S37" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407288</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383036</v>
       </c>
       <c r="H38" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237903</v>
       </c>
       <c r="I38" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J38" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386288</v>
       </c>
       <c r="K38" t="n">
-        <v>55.27250482844937</v>
+        <v>55.27250482844929</v>
       </c>
       <c r="L38" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889841</v>
       </c>
       <c r="M38" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524647</v>
       </c>
       <c r="N38" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250092</v>
       </c>
       <c r="O38" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677316</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48444157473388</v>
+        <v>62.48444157473378</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420577</v>
       </c>
       <c r="R38" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303924</v>
       </c>
       <c r="S38" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016603</v>
       </c>
       <c r="T38" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506425</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306428</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889614</v>
       </c>
       <c r="H39" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I39" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848014</v>
       </c>
       <c r="J39" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716587</v>
       </c>
       <c r="K39" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L39" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075235</v>
       </c>
       <c r="M39" t="n">
-        <v>58.90726011585228</v>
+        <v>58.90726011585219</v>
       </c>
       <c r="N39" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709572</v>
       </c>
       <c r="O39" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420346</v>
       </c>
       <c r="P39" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950966</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.67694129153134</v>
+        <v>29.67694129153129</v>
       </c>
       <c r="R39" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S39" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365135</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432257</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.01529528997295799</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H40" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I40" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915599</v>
       </c>
       <c r="J40" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K40" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865215</v>
       </c>
       <c r="L40" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702953</v>
       </c>
       <c r="M40" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644124</v>
       </c>
       <c r="N40" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313552</v>
       </c>
       <c r="O40" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P40" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R40" t="n">
-        <v>8.763883547390744</v>
+        <v>8.76388354739073</v>
       </c>
       <c r="S40" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407286</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383036</v>
       </c>
       <c r="H41" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237903</v>
       </c>
       <c r="I41" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J41" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386288</v>
       </c>
       <c r="K41" t="n">
-        <v>55.27250482844937</v>
+        <v>55.27250482844929</v>
       </c>
       <c r="L41" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889841</v>
       </c>
       <c r="M41" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524647</v>
       </c>
       <c r="N41" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250092</v>
       </c>
       <c r="O41" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677316</v>
       </c>
       <c r="P41" t="n">
-        <v>62.48444157473388</v>
+        <v>62.48444157473378</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420577</v>
       </c>
       <c r="R41" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303924</v>
       </c>
       <c r="S41" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016603</v>
       </c>
       <c r="T41" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506425</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306428</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889614</v>
       </c>
       <c r="H42" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I42" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848014</v>
       </c>
       <c r="J42" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716587</v>
       </c>
       <c r="K42" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L42" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075235</v>
       </c>
       <c r="M42" t="n">
-        <v>58.90726011585228</v>
+        <v>58.90726011585219</v>
       </c>
       <c r="N42" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709572</v>
       </c>
       <c r="O42" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420346</v>
       </c>
       <c r="P42" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950966</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.67694129153134</v>
+        <v>29.67694129153129</v>
       </c>
       <c r="R42" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S42" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365135</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432257</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.01529528997295799</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H43" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I43" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915599</v>
       </c>
       <c r="J43" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K43" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865215</v>
       </c>
       <c r="L43" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702953</v>
       </c>
       <c r="M43" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644124</v>
       </c>
       <c r="N43" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313552</v>
       </c>
       <c r="O43" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P43" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R43" t="n">
-        <v>8.763883547390744</v>
+        <v>8.76388354739073</v>
       </c>
       <c r="S43" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407286</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4345194605383043</v>
+        <v>0.4345194605383036</v>
       </c>
       <c r="H44" t="n">
-        <v>4.45002242523791</v>
+        <v>4.450022425237903</v>
       </c>
       <c r="I44" t="n">
-        <v>16.75181150240299</v>
+        <v>16.75181150240297</v>
       </c>
       <c r="J44" t="n">
-        <v>36.87929606386294</v>
+        <v>36.87929606386288</v>
       </c>
       <c r="K44" t="n">
-        <v>55.27250482844937</v>
+        <v>55.27250482844929</v>
       </c>
       <c r="L44" t="n">
-        <v>68.57042976889852</v>
+        <v>68.57042976889841</v>
       </c>
       <c r="M44" t="n">
-        <v>76.29781522524658</v>
+        <v>76.29781522524647</v>
       </c>
       <c r="N44" t="n">
-        <v>77.53239364250105</v>
+        <v>77.53239364250092</v>
       </c>
       <c r="O44" t="n">
-        <v>73.21164075677328</v>
+        <v>73.21164075677316</v>
       </c>
       <c r="P44" t="n">
-        <v>62.48444157473388</v>
+        <v>62.48444157473378</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.92321339420585</v>
+        <v>46.92321339420577</v>
       </c>
       <c r="R44" t="n">
-        <v>27.29488306303928</v>
+        <v>27.29488306303924</v>
       </c>
       <c r="S44" t="n">
-        <v>9.901612207016619</v>
+        <v>9.901612207016603</v>
       </c>
       <c r="T44" t="n">
-        <v>1.902108938506428</v>
+        <v>1.902108938506425</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03476155684306434</v>
+        <v>0.03476155684306428</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2324884075889618</v>
+        <v>0.2324884075889614</v>
       </c>
       <c r="H45" t="n">
-        <v>2.245348568030237</v>
+        <v>2.245348568030233</v>
       </c>
       <c r="I45" t="n">
-        <v>8.004535085848026</v>
+        <v>8.004535085848014</v>
       </c>
       <c r="J45" t="n">
-        <v>21.96505608716591</v>
+        <v>21.96505608716587</v>
       </c>
       <c r="K45" t="n">
-        <v>37.54177939562634</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L45" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075235</v>
       </c>
       <c r="M45" t="n">
-        <v>58.90726011585228</v>
+        <v>58.90726011585219</v>
       </c>
       <c r="N45" t="n">
-        <v>60.46636000709581</v>
+        <v>60.46636000709572</v>
       </c>
       <c r="O45" t="n">
-        <v>55.31490634420355</v>
+        <v>55.31490634420346</v>
       </c>
       <c r="P45" t="n">
-        <v>44.39508898950973</v>
+        <v>44.39508898950966</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.67694129153134</v>
+        <v>29.67694129153129</v>
       </c>
       <c r="R45" t="n">
-        <v>14.43467499047958</v>
+        <v>14.43467499047956</v>
       </c>
       <c r="S45" t="n">
-        <v>4.318370202365142</v>
+        <v>4.318370202365135</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9370914323432271</v>
+        <v>0.9370914323432257</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01529528997295802</v>
+        <v>0.01529528997295799</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1949104711308092</v>
+        <v>0.1949104711308089</v>
       </c>
       <c r="H46" t="n">
-        <v>1.732931279690286</v>
+        <v>1.732931279690284</v>
       </c>
       <c r="I46" t="n">
-        <v>5.861489440915609</v>
+        <v>5.861489440915599</v>
       </c>
       <c r="J46" t="n">
-        <v>13.78017030894821</v>
+        <v>13.78017030894819</v>
       </c>
       <c r="K46" t="n">
-        <v>22.64505291865219</v>
+        <v>22.64505291865215</v>
       </c>
       <c r="L46" t="n">
-        <v>28.97787131702958</v>
+        <v>28.97787131702953</v>
       </c>
       <c r="M46" t="n">
-        <v>30.55310230644129</v>
+        <v>30.55310230644124</v>
       </c>
       <c r="N46" t="n">
-        <v>29.82661782313557</v>
+        <v>29.82661782313552</v>
       </c>
       <c r="O46" t="n">
-        <v>27.54970913765293</v>
+        <v>27.54970913765289</v>
       </c>
       <c r="P46" t="n">
-        <v>23.5735355265844</v>
+        <v>23.57353552658437</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.3210940871444</v>
+        <v>16.32109408714437</v>
       </c>
       <c r="R46" t="n">
-        <v>8.763883547390744</v>
+        <v>8.76388354739073</v>
       </c>
       <c r="S46" t="n">
-        <v>3.396757937797828</v>
+        <v>3.396757937797823</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8327992857407299</v>
+        <v>0.8327992857407286</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01063148024349869</v>
+        <v>0.01063148024349868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>466.3240083888435</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J11" t="n">
-        <v>305.3637916494097</v>
+        <v>476.5304955112547</v>
       </c>
       <c r="K11" t="n">
         <v>716.3149213760543</v>
@@ -35421,19 +35421,19 @@
         <v>76.2978152252465</v>
       </c>
       <c r="N11" t="n">
-        <v>77.53239364250112</v>
+        <v>77.53239364250089</v>
       </c>
       <c r="O11" t="n">
+        <v>73.21164075677325</v>
+      </c>
+      <c r="P11" t="n">
         <v>716.3149213760544</v>
       </c>
-      <c r="P11" t="n">
-        <v>62.48444157473386</v>
-      </c>
       <c r="Q11" t="n">
-        <v>598.9421891099582</v>
+        <v>587.9109777358285</v>
       </c>
       <c r="R11" t="n">
-        <v>198.1575747327938</v>
+        <v>27.29488306303938</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>34.33147767216882</v>
       </c>
       <c r="J12" t="n">
-        <v>349.8017479722289</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K12" t="n">
         <v>716.3149213760543</v>
       </c>
       <c r="L12" t="n">
-        <v>190.1345210983638</v>
+        <v>90.12660637965359</v>
       </c>
       <c r="M12" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N12" t="n">
         <v>60.46636000709577</v>
@@ -35509,10 +35509,10 @@
         <v>44.39508898950976</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.67694129153142</v>
+        <v>575.8778894047389</v>
       </c>
       <c r="R12" t="n">
-        <v>132.7910164999137</v>
+        <v>14.43467499047961</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>101.2343977480289</v>
       </c>
       <c r="K13" t="n">
-        <v>300.1788454147488</v>
+        <v>300.1788454147487</v>
       </c>
       <c r="L13" t="n">
-        <v>451.4120953250711</v>
+        <v>451.412095325071</v>
       </c>
       <c r="M13" t="n">
-        <v>494.6782206710003</v>
+        <v>494.678220671</v>
       </c>
       <c r="N13" t="n">
-        <v>476.5526816187364</v>
+        <v>476.5526816187362</v>
       </c>
       <c r="O13" t="n">
-        <v>451.4580416889473</v>
+        <v>451.4580416889471</v>
       </c>
       <c r="P13" t="n">
         <v>374.5906001430913</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.2127858692979</v>
+        <v>186.2127858692984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J14" t="n">
-        <v>476.5304955112548</v>
+        <v>476.5304955112547</v>
       </c>
       <c r="K14" t="n">
-        <v>461.4708399648819</v>
+        <v>716.3149213760543</v>
       </c>
       <c r="L14" t="n">
         <v>68.57042976889852</v>
       </c>
       <c r="M14" t="n">
-        <v>716.3149213760544</v>
+        <v>76.2978152252465</v>
       </c>
       <c r="N14" t="n">
-        <v>716.3149213760544</v>
+        <v>77.53239364250089</v>
       </c>
       <c r="O14" t="n">
-        <v>73.21164075677325</v>
+        <v>545.1482175142105</v>
       </c>
       <c r="P14" t="n">
         <v>62.48444157473386</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.92321339420596</v>
+        <v>598.9421891099578</v>
       </c>
       <c r="R14" t="n">
         <v>198.1575747327938</v>
@@ -35728,22 +35728,22 @@
         <v>349.8017479722289</v>
       </c>
       <c r="K15" t="n">
-        <v>37.54177939562635</v>
+        <v>309.7689390204586</v>
       </c>
       <c r="L15" t="n">
-        <v>50.47955534075248</v>
+        <v>50.47955534075231</v>
       </c>
       <c r="M15" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N15" t="n">
         <v>60.46636000709577</v>
       </c>
       <c r="O15" t="n">
-        <v>55.31490634420356</v>
+        <v>55.31490634420345</v>
       </c>
       <c r="P15" t="n">
-        <v>316.6222486143414</v>
+        <v>44.39508898950965</v>
       </c>
       <c r="Q15" t="n">
         <v>575.877889404739</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>101.2343977480289</v>
+        <v>101.2343977480288</v>
       </c>
       <c r="K16" t="n">
-        <v>300.1788454147489</v>
+        <v>300.1788454147487</v>
       </c>
       <c r="L16" t="n">
         <v>451.412095325071</v>
@@ -35819,10 +35819,10 @@
         <v>476.5526816187362</v>
       </c>
       <c r="O16" t="n">
-        <v>451.4580416889473</v>
+        <v>451.4580416889471</v>
       </c>
       <c r="P16" t="n">
-        <v>374.5906001430917</v>
+        <v>374.5906001430913</v>
       </c>
       <c r="Q16" t="n">
         <v>186.2127858692984</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J17" t="n">
-        <v>476.5304955112548</v>
+        <v>476.5304955112547</v>
       </c>
       <c r="K17" t="n">
-        <v>898.0505775134776</v>
+        <v>898.0505775134775</v>
       </c>
       <c r="L17" t="n">
-        <v>1154.489587600069</v>
+        <v>68.57042976889852</v>
       </c>
       <c r="M17" t="n">
-        <v>76.29781522524672</v>
+        <v>76.2978152252465</v>
       </c>
       <c r="N17" t="n">
-        <v>77.53239364250112</v>
+        <v>748.5700886757274</v>
       </c>
       <c r="O17" t="n">
         <v>1063.292112039911</v>
       </c>
       <c r="P17" t="n">
-        <v>484.2796200226435</v>
+        <v>899.1610828205885</v>
       </c>
       <c r="Q17" t="n">
         <v>598.9421891099582</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8.004535085848019</v>
+        <v>34.33147767216882</v>
       </c>
       <c r="J18" t="n">
-        <v>349.8017479722289</v>
+        <v>349.8017479722288</v>
       </c>
       <c r="K18" t="n">
-        <v>725.1513956283305</v>
+        <v>309.768939020459</v>
       </c>
       <c r="L18" t="n">
-        <v>50.47955534075254</v>
+        <v>50.4795553407522</v>
       </c>
       <c r="M18" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N18" t="n">
         <v>60.46636000709577</v>
       </c>
       <c r="O18" t="n">
-        <v>55.31490634420356</v>
+        <v>55.31490634420345</v>
       </c>
       <c r="P18" t="n">
-        <v>44.39508898950976</v>
+        <v>44.39508898950965</v>
       </c>
       <c r="Q18" t="n">
-        <v>305.1787168926214</v>
+        <v>575.8778894047389</v>
       </c>
       <c r="R18" t="n">
-        <v>14.43467499047961</v>
+        <v>132.7910164999137</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>101.2343977480289</v>
       </c>
       <c r="K19" t="n">
-        <v>300.1788454147488</v>
+        <v>300.1788454147487</v>
       </c>
       <c r="L19" t="n">
         <v>451.412095325071</v>
       </c>
       <c r="M19" t="n">
-        <v>494.6782206710001</v>
+        <v>494.6782206709998</v>
       </c>
       <c r="N19" t="n">
         <v>476.5526816187362</v>
       </c>
       <c r="O19" t="n">
-        <v>451.4580416889471</v>
+        <v>451.4580416889473</v>
       </c>
       <c r="P19" t="n">
         <v>374.5906001430913</v>
       </c>
       <c r="Q19" t="n">
-        <v>186.2127858692984</v>
+        <v>186.2127858692979</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J20" t="n">
-        <v>36.87929606386294</v>
+        <v>476.5304955112547</v>
       </c>
       <c r="K20" t="n">
-        <v>176.5414322417608</v>
+        <v>898.0505775134775</v>
       </c>
       <c r="L20" t="n">
-        <v>1154.48958760007</v>
+        <v>739.6081248021251</v>
       </c>
       <c r="M20" t="n">
-        <v>1245.033002306611</v>
+        <v>76.29781522524627</v>
       </c>
       <c r="N20" t="n">
-        <v>1214.63439711366</v>
+        <v>77.53239364250112</v>
       </c>
       <c r="O20" t="n">
         <v>1063.292112039911</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48444157473386</v>
+        <v>899.1610828205885</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.92321339420596</v>
+        <v>598.9421891099582</v>
       </c>
       <c r="R20" t="n">
-        <v>27.29488306303938</v>
+        <v>198.1575747327925</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.33147767216884</v>
+        <v>34.33147767216882</v>
       </c>
       <c r="J21" t="n">
-        <v>349.8017479722289</v>
+        <v>349.8017479722288</v>
       </c>
       <c r="K21" t="n">
-        <v>37.54177939562629</v>
+        <v>309.768939020459</v>
       </c>
       <c r="L21" t="n">
-        <v>50.47955534075243</v>
+        <v>50.4795553407522</v>
       </c>
       <c r="M21" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N21" t="n">
         <v>60.46636000709577</v>
       </c>
       <c r="O21" t="n">
-        <v>55.31490634420356</v>
+        <v>55.31490634420345</v>
       </c>
       <c r="P21" t="n">
-        <v>316.6222486143415</v>
+        <v>44.39508898950965</v>
       </c>
       <c r="Q21" t="n">
-        <v>575.8778894047391</v>
+        <v>575.8778894047389</v>
       </c>
       <c r="R21" t="n">
         <v>132.7910164999137</v>
@@ -36287,19 +36287,19 @@
         <v>451.412095325071</v>
       </c>
       <c r="M22" t="n">
-        <v>494.6782206710001</v>
+        <v>494.6782206709998</v>
       </c>
       <c r="N22" t="n">
         <v>476.5526816187362</v>
       </c>
       <c r="O22" t="n">
-        <v>451.4580416889471</v>
+        <v>451.4580416889473</v>
       </c>
       <c r="P22" t="n">
         <v>374.5906001430913</v>
       </c>
       <c r="Q22" t="n">
-        <v>186.2127858692984</v>
+        <v>186.2127858692979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J23" t="n">
-        <v>476.5304955112548</v>
+        <v>476.5304955112547</v>
       </c>
       <c r="K23" t="n">
-        <v>898.0505775134776</v>
+        <v>898.0505775134775</v>
       </c>
       <c r="L23" t="n">
-        <v>910.470816471877</v>
+        <v>1154.48958760007</v>
       </c>
       <c r="M23" t="n">
-        <v>76.29781522524672</v>
+        <v>76.29781522524627</v>
       </c>
       <c r="N23" t="n">
         <v>77.53239364250112</v>
@@ -36378,10 +36378,10 @@
         <v>899.1610828205885</v>
       </c>
       <c r="Q23" t="n">
-        <v>598.9421891099582</v>
+        <v>184.0607263120137</v>
       </c>
       <c r="R23" t="n">
-        <v>27.29488306303938</v>
+        <v>198.1575747327925</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.33147767216884</v>
+        <v>34.33147767216882</v>
       </c>
       <c r="J24" t="n">
-        <v>349.8017479722289</v>
+        <v>349.8017479722288</v>
       </c>
       <c r="K24" t="n">
-        <v>37.54177939562629</v>
+        <v>309.768939020459</v>
       </c>
       <c r="L24" t="n">
-        <v>50.47955534075243</v>
+        <v>50.4795553407522</v>
       </c>
       <c r="M24" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N24" t="n">
         <v>60.46636000709577</v>
       </c>
       <c r="O24" t="n">
-        <v>55.31490634420356</v>
+        <v>55.31490634420345</v>
       </c>
       <c r="P24" t="n">
-        <v>316.6222486143415</v>
+        <v>44.39508898950965</v>
       </c>
       <c r="Q24" t="n">
-        <v>575.8778894047391</v>
+        <v>575.8778894047389</v>
       </c>
       <c r="R24" t="n">
         <v>132.7910164999137</v>
@@ -36524,19 +36524,19 @@
         <v>451.412095325071</v>
       </c>
       <c r="M25" t="n">
-        <v>494.6782206710001</v>
+        <v>494.6782206709998</v>
       </c>
       <c r="N25" t="n">
         <v>476.5526816187362</v>
       </c>
       <c r="O25" t="n">
-        <v>451.4580416889471</v>
+        <v>451.4580416889473</v>
       </c>
       <c r="P25" t="n">
         <v>374.5906001430913</v>
       </c>
       <c r="Q25" t="n">
-        <v>186.2127858692984</v>
+        <v>186.2127858692979</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J26" t="n">
-        <v>476.5304955112548</v>
+        <v>476.5304955112547</v>
       </c>
       <c r="K26" t="n">
-        <v>898.0505775134776</v>
+        <v>898.0505775134775</v>
       </c>
       <c r="L26" t="n">
-        <v>1154.489587600069</v>
+        <v>739.6081248021251</v>
       </c>
       <c r="M26" t="n">
-        <v>651.4968237104395</v>
+        <v>76.29781522524627</v>
       </c>
       <c r="N26" t="n">
         <v>77.53239364250112</v>
       </c>
       <c r="O26" t="n">
-        <v>73.21164075677325</v>
+        <v>1063.292112039911</v>
       </c>
       <c r="P26" t="n">
         <v>899.1610828205885</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.33147767216884</v>
+        <v>8.004535085848019</v>
       </c>
       <c r="J27" t="n">
-        <v>349.8017479722289</v>
+        <v>79.10257546011167</v>
       </c>
       <c r="K27" t="n">
-        <v>37.54177939562629</v>
+        <v>725.1513956283306</v>
       </c>
       <c r="L27" t="n">
-        <v>50.47955534075243</v>
+        <v>50.47955534075231</v>
       </c>
       <c r="M27" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N27" t="n">
         <v>60.46636000709577</v>
@@ -36691,13 +36691,13 @@
         <v>55.31490634420356</v>
       </c>
       <c r="P27" t="n">
-        <v>316.6222486143415</v>
+        <v>44.39508898950976</v>
       </c>
       <c r="Q27" t="n">
-        <v>575.8778894047391</v>
+        <v>575.8778894047389</v>
       </c>
       <c r="R27" t="n">
-        <v>132.7910164999137</v>
+        <v>14.43467499047961</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>101.2343977480289</v>
       </c>
       <c r="K28" t="n">
-        <v>300.1788454147488</v>
+        <v>300.1788454147487</v>
       </c>
       <c r="L28" t="n">
-        <v>451.4120953250711</v>
+        <v>451.412095325071</v>
       </c>
       <c r="M28" t="n">
-        <v>494.678220671</v>
+        <v>494.6782206709998</v>
       </c>
       <c r="N28" t="n">
         <v>476.5526816187362</v>
       </c>
       <c r="O28" t="n">
-        <v>451.4580416889476</v>
+        <v>451.4580416889473</v>
       </c>
       <c r="P28" t="n">
         <v>374.5906001430913</v>
       </c>
       <c r="Q28" t="n">
-        <v>186.2127858692984</v>
+        <v>186.2127858692979</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J29" t="n">
-        <v>36.87929606386294</v>
+        <v>36.8792960638629</v>
       </c>
       <c r="K29" t="n">
-        <v>176.5414322417608</v>
+        <v>898.0505775134776</v>
       </c>
       <c r="L29" t="n">
         <v>1154.48958760007</v>
       </c>
       <c r="M29" t="n">
-        <v>1245.033002306611</v>
+        <v>76.29781522524627</v>
       </c>
       <c r="N29" t="n">
-        <v>1214.63439711366</v>
+        <v>102.3021302919483</v>
       </c>
       <c r="O29" t="n">
         <v>1063.292112039911</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48444157473386</v>
+        <v>899.1610828205885</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.92321339420596</v>
+        <v>598.9421891099582</v>
       </c>
       <c r="R29" t="n">
-        <v>27.29488306303938</v>
+        <v>198.1575747327925</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>34.33147767216882</v>
       </c>
       <c r="J30" t="n">
-        <v>349.8017479722289</v>
+        <v>349.8017479722288</v>
       </c>
       <c r="K30" t="n">
-        <v>309.7689390204583</v>
+        <v>309.768939020459</v>
       </c>
       <c r="L30" t="n">
-        <v>50.47955534075243</v>
+        <v>50.4795553407522</v>
       </c>
       <c r="M30" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N30" t="n">
         <v>60.46636000709577</v>
       </c>
       <c r="O30" t="n">
-        <v>55.31490634420356</v>
+        <v>55.31490634420345</v>
       </c>
       <c r="P30" t="n">
-        <v>44.39508898950976</v>
+        <v>44.39508898950965</v>
       </c>
       <c r="Q30" t="n">
         <v>575.8778894047389</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2343977480291</v>
+        <v>101.2343977480289</v>
       </c>
       <c r="K31" t="n">
-        <v>300.1788454147486</v>
+        <v>300.1788454147487</v>
       </c>
       <c r="L31" t="n">
-        <v>451.4120953250713</v>
+        <v>451.412095325071</v>
       </c>
       <c r="M31" t="n">
-        <v>494.678220671</v>
+        <v>494.6782206709998</v>
       </c>
       <c r="N31" t="n">
         <v>476.5526816187362</v>
       </c>
       <c r="O31" t="n">
-        <v>451.4580416889476</v>
+        <v>451.4580416889473</v>
       </c>
       <c r="P31" t="n">
-        <v>374.5906001430967</v>
+        <v>374.5906001430913</v>
       </c>
       <c r="Q31" t="n">
-        <v>186.2127858692975</v>
+        <v>186.2127858692979</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J32" t="n">
-        <v>36.87929606386294</v>
+        <v>232.5117243830631</v>
       </c>
       <c r="K32" t="n">
-        <v>176.5414322417612</v>
+        <v>898.0505775134776</v>
       </c>
       <c r="L32" t="n">
         <v>1154.48958760007</v>
       </c>
       <c r="M32" t="n">
-        <v>1245.033002306611</v>
+        <v>76.29781522524627</v>
       </c>
       <c r="N32" t="n">
-        <v>1214.63439711366</v>
+        <v>77.53239364250112</v>
       </c>
       <c r="O32" t="n">
         <v>1063.292112039911</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48444157473386</v>
+        <v>899.1610828205885</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.92321339420596</v>
+        <v>598.9421891099582</v>
       </c>
       <c r="R32" t="n">
         <v>27.29488306303938</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.33147767216906</v>
+        <v>34.33147767216882</v>
       </c>
       <c r="J33" t="n">
-        <v>349.8017479722289</v>
+        <v>349.8017479722288</v>
       </c>
       <c r="K33" t="n">
-        <v>309.7689390204564</v>
+        <v>309.768939020459</v>
       </c>
       <c r="L33" t="n">
-        <v>50.47955534075209</v>
+        <v>50.4795553407522</v>
       </c>
       <c r="M33" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N33" t="n">
-        <v>60.46636000709623</v>
+        <v>60.46636000709577</v>
       </c>
       <c r="O33" t="n">
-        <v>55.31490634420334</v>
+        <v>55.31490634420345</v>
       </c>
       <c r="P33" t="n">
-        <v>44.39508898950953</v>
+        <v>44.39508898950965</v>
       </c>
       <c r="Q33" t="n">
-        <v>575.8778894047391</v>
+        <v>575.8778894047389</v>
       </c>
       <c r="R33" t="n">
-        <v>132.7910164999139</v>
+        <v>132.7910164999137</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>101.2343977480289</v>
       </c>
       <c r="K34" t="n">
-        <v>300.1788454147488</v>
+        <v>300.1788454147487</v>
       </c>
       <c r="L34" t="n">
-        <v>451.4120953250711</v>
+        <v>451.412095325071</v>
       </c>
       <c r="M34" t="n">
-        <v>494.678220671</v>
+        <v>494.6782206709998</v>
       </c>
       <c r="N34" t="n">
         <v>476.5526816187362</v>
       </c>
       <c r="O34" t="n">
-        <v>451.4580416889476</v>
+        <v>451.4580416889473</v>
       </c>
       <c r="P34" t="n">
         <v>374.5906001430913</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.2127858692984</v>
+        <v>186.2127858692979</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J35" t="n">
-        <v>36.87929606386292</v>
+        <v>36.87929606386288</v>
       </c>
       <c r="K35" t="n">
-        <v>55.27250482844937</v>
+        <v>176.5414322417613</v>
       </c>
       <c r="L35" t="n">
-        <v>1104.895823343626</v>
+        <v>1154.48958760007</v>
       </c>
       <c r="M35" t="n">
         <v>1245.033002306611</v>
@@ -37329,7 +37329,7 @@
         <v>46.92321339420596</v>
       </c>
       <c r="R35" t="n">
-        <v>198.1575747327934</v>
+        <v>27.29488306303847</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8.004535085848147</v>
+        <v>8.004535085848019</v>
       </c>
       <c r="J36" t="n">
-        <v>21.96505608716598</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K36" t="n">
-        <v>37.54177939562624</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L36" t="n">
-        <v>513.424440595772</v>
+        <v>50.47955534075237</v>
       </c>
       <c r="M36" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N36" t="n">
-        <v>60.46636000709623</v>
+        <v>60.46636000709572</v>
       </c>
       <c r="O36" t="n">
-        <v>55.31490634420334</v>
+        <v>55.31490634420351</v>
       </c>
       <c r="P36" t="n">
-        <v>872.3982874533467</v>
+        <v>789.14222459516</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.67694129153097</v>
+        <v>575.8778894047389</v>
       </c>
       <c r="R36" t="n">
-        <v>14.43467499047983</v>
+        <v>14.43467499047961</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,22 +37469,22 @@
         <v>300.1788454147487</v>
       </c>
       <c r="L37" t="n">
-        <v>451.4120953250711</v>
+        <v>451.412095325071</v>
       </c>
       <c r="M37" t="n">
-        <v>494.678220671</v>
+        <v>494.6782206709998</v>
       </c>
       <c r="N37" t="n">
         <v>476.5526816187362</v>
       </c>
       <c r="O37" t="n">
-        <v>451.4580416889476</v>
+        <v>451.4580416889473</v>
       </c>
       <c r="P37" t="n">
         <v>374.5906001430913</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.2127858692984</v>
+        <v>186.2127858692979</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J38" t="n">
-        <v>36.87929606386292</v>
+        <v>36.8792960638629</v>
       </c>
       <c r="K38" t="n">
-        <v>176.5414322417612</v>
+        <v>176.5414322417613</v>
       </c>
       <c r="L38" t="n">
         <v>1154.48958760007</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.33147767216906</v>
+        <v>8.004535085848019</v>
       </c>
       <c r="J39" t="n">
-        <v>349.8017479722289</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K39" t="n">
-        <v>309.7689390204573</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L39" t="n">
-        <v>50.47955534075209</v>
+        <v>50.47955534075234</v>
       </c>
       <c r="M39" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585221</v>
       </c>
       <c r="N39" t="n">
-        <v>60.46636000709623</v>
+        <v>60.46636000709572</v>
       </c>
       <c r="O39" t="n">
-        <v>55.31490634420334</v>
+        <v>55.31490634420345</v>
       </c>
       <c r="P39" t="n">
-        <v>44.39508898950953</v>
+        <v>872.3982874533463</v>
       </c>
       <c r="Q39" t="n">
-        <v>575.8778894047391</v>
+        <v>492.6218265465527</v>
       </c>
       <c r="R39" t="n">
-        <v>132.7910164999139</v>
+        <v>14.43467499047961</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2343977480291</v>
+        <v>101.2343977480289</v>
       </c>
       <c r="K40" t="n">
-        <v>300.1788454147486</v>
+        <v>300.1788454147487</v>
       </c>
       <c r="L40" t="n">
-        <v>451.4120953250713</v>
+        <v>451.412095325071</v>
       </c>
       <c r="M40" t="n">
-        <v>494.678220671</v>
+        <v>494.6782206709998</v>
       </c>
       <c r="N40" t="n">
         <v>476.5526816187362</v>
       </c>
       <c r="O40" t="n">
-        <v>451.4580416889476</v>
+        <v>451.4580416889473</v>
       </c>
       <c r="P40" t="n">
         <v>374.5906001430913</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.2127858692975</v>
+        <v>186.2127858692979</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J41" t="n">
-        <v>476.5304955112548</v>
+        <v>476.5304955112546</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3149213760541</v>
+        <v>716.3149213760539</v>
       </c>
       <c r="L41" t="n">
-        <v>68.57042976889852</v>
+        <v>711.3696981960891</v>
       </c>
       <c r="M41" t="n">
         <v>76.2978152252465</v>
@@ -37794,7 +37794,7 @@
         <v>77.53239364250112</v>
       </c>
       <c r="O41" t="n">
-        <v>545.1482175142094</v>
+        <v>73.21164075677325</v>
       </c>
       <c r="P41" t="n">
         <v>62.48444157473386</v>
@@ -37803,7 +37803,7 @@
         <v>598.9421891099578</v>
       </c>
       <c r="R41" t="n">
-        <v>198.1575747327938</v>
+        <v>27.29488306303938</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.33147767216883</v>
+        <v>8.004535085848019</v>
       </c>
       <c r="J42" t="n">
-        <v>349.8017479722289</v>
+        <v>87.93904971238818</v>
       </c>
       <c r="K42" t="n">
-        <v>309.7689390204584</v>
+        <v>716.314921376054</v>
       </c>
       <c r="L42" t="n">
-        <v>50.47955534075254</v>
+        <v>50.47955534075231</v>
       </c>
       <c r="M42" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N42" t="n">
         <v>60.46636000709577</v>
       </c>
       <c r="O42" t="n">
-        <v>55.31490634420334</v>
+        <v>55.31490634420356</v>
       </c>
       <c r="P42" t="n">
-        <v>44.39508898950953</v>
+        <v>44.39508898950976</v>
       </c>
       <c r="Q42" t="n">
-        <v>575.8778894047391</v>
+        <v>575.8778894047389</v>
       </c>
       <c r="R42" t="n">
-        <v>132.7910164999134</v>
+        <v>14.43467499047961</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>300.1788454147487</v>
       </c>
       <c r="L43" t="n">
-        <v>451.4120953250711</v>
+        <v>451.412095325071</v>
       </c>
       <c r="M43" t="n">
-        <v>494.6782206710001</v>
+        <v>494.678220671</v>
       </c>
       <c r="N43" t="n">
         <v>476.5526816187362</v>
       </c>
       <c r="O43" t="n">
-        <v>451.4580416889473</v>
+        <v>451.4580416889471</v>
       </c>
       <c r="P43" t="n">
         <v>374.5906001430913</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>16.33919002327159</v>
+        <v>16.33919002327157</v>
       </c>
       <c r="J44" t="n">
-        <v>36.87929606386294</v>
+        <v>476.5304955112546</v>
       </c>
       <c r="K44" t="n">
-        <v>253.3775478051177</v>
+        <v>55.27250482844931</v>
       </c>
       <c r="L44" t="n">
-        <v>716.3149213760541</v>
+        <v>716.314921376054</v>
       </c>
       <c r="M44" t="n">
-        <v>716.3149213760541</v>
+        <v>76.2978152252465</v>
       </c>
       <c r="N44" t="n">
-        <v>716.3149213760541</v>
+        <v>460.9553912548181</v>
       </c>
       <c r="O44" t="n">
         <v>73.21164075677325</v>
       </c>
       <c r="P44" t="n">
-        <v>62.48444157473386</v>
+        <v>716.3149213760539</v>
       </c>
       <c r="Q44" t="n">
         <v>46.92321339420596</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.33147767216882</v>
+        <v>8.004535085848019</v>
       </c>
       <c r="J45" t="n">
-        <v>349.8017479722289</v>
+        <v>21.96505608716588</v>
       </c>
       <c r="K45" t="n">
-        <v>309.7689390204581</v>
+        <v>37.54177939562629</v>
       </c>
       <c r="L45" t="n">
-        <v>50.47955534075243</v>
+        <v>669.5078066730659</v>
       </c>
       <c r="M45" t="n">
-        <v>58.9072601158523</v>
+        <v>58.90726011585218</v>
       </c>
       <c r="N45" t="n">
         <v>60.46636000709577</v>
       </c>
       <c r="O45" t="n">
-        <v>55.31490634420356</v>
+        <v>55.31490634420345</v>
       </c>
       <c r="P45" t="n">
-        <v>44.39508898950976</v>
+        <v>716.314921376054</v>
       </c>
       <c r="Q45" t="n">
-        <v>575.877889404739</v>
+        <v>29.67694129153119</v>
       </c>
       <c r="R45" t="n">
-        <v>132.7910164999137</v>
+        <v>14.43467499047961</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,13 +38177,13 @@
         <v>101.2343977480289</v>
       </c>
       <c r="K46" t="n">
-        <v>300.1788454147487</v>
+        <v>300.1788454147485</v>
       </c>
       <c r="L46" t="n">
-        <v>451.412095325071</v>
+        <v>451.4120953250709</v>
       </c>
       <c r="M46" t="n">
-        <v>494.678220671</v>
+        <v>494.6782206709998</v>
       </c>
       <c r="N46" t="n">
         <v>476.5526816187362</v>
